--- a/EV Sample.xlsx
+++ b/EV Sample.xlsx
@@ -13,11 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
-    <sheet name="SAP" sheetId="4" r:id="rId2"/>
-    <sheet name="Grades" sheetId="5" r:id="rId3"/>
-    <sheet name="EV" sheetId="3" r:id="rId4"/>
-    <sheet name="Plan" sheetId="2" r:id="rId5"/>
+    <sheet name="CallList" sheetId="8" r:id="rId2"/>
+    <sheet name="SAP" sheetId="4" r:id="rId3"/>
+    <sheet name="Grades" sheetId="5" r:id="rId4"/>
+    <sheet name="EV" sheetId="3" r:id="rId5"/>
+    <sheet name="Plan" sheetId="2" r:id="rId6"/>
+    <sheet name="Reference" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="Lookup_Counselling">Reference!$A$3:$B$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="139">
   <si>
     <t>Element</t>
   </si>
@@ -380,11 +385,106 @@
   <si>
     <t>The syllabus as provided by the MOOC provider</t>
   </si>
+  <si>
+    <t>Counselling</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Charging time to the wrong SAP code</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>Not completing milestones in the week due</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>May be having difficulty with the material</t>
+  </si>
+  <si>
+    <t>Suggested Topic for Counselling</t>
+  </si>
+  <si>
+    <t>DeDuped Priority</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Prioritization</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Doing well, may be able to coach others</t>
+  </si>
+  <si>
+    <t>CallList</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>RAW Priority 
+= CV+SV</t>
+  </si>
+  <si>
+    <t>A prioritized list of the people to call with a note of what to call about.
+Concept: With simple rules, you can create a list of people to call sequenced by the magnitude of their issues with a brief note what to call about. Such follow-up may nudge change to happen... or... if the nudge doesn't work, you should give warning that the change is not going to happen sooner than you could spot the problem without EV.</t>
+  </si>
+  <si>
+    <t>What to talk about…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q: How do we get from "EV" to "CallList"?
+A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The tab "CallList" lists the rows from the EV tab in order of their priority as determined by the calculations on the EV tab.
+Note that Schedule Variance (SV) and Cost Variance (CV) have the same units. If you add them together, you have an idea of how big a problem that row relative to other rows measured in the same units. 
+Raw Priority = SV + CV 
+A challenge with "raw priority" is that some rows may have the same sum of SV+CV. For each row that has the same SV+CV, we add a small amount so that they are listed in sequence.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +534,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAA600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -639,11 +757,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,12 +946,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFDAA600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1084,9 +1274,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1128,6 +1320,19 @@
         <v>116</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="C11" s="60" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1136,13 +1341,1445 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A2,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Kathy</v>
+      </c>
+      <c r="C2" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A2,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="72">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A3,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Mona</v>
+      </c>
+      <c r="C3" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A3,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="72">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A4,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Fred</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A4,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="72">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Ted</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="72">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Judy</v>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="72">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Lynda</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="72">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A8,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Mike</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A8,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A9,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Stu</v>
+      </c>
+      <c r="C9" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A9,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="72">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A10,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Henry</v>
+      </c>
+      <c r="C10" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A10,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="72">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A11,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Tom</v>
+      </c>
+      <c r="C11" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A11,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="72">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A12,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Dick</v>
+      </c>
+      <c r="C12" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A12,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="72">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A13,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Nancy</v>
+      </c>
+      <c r="C13" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A13,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Not completing milestones in the week due</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="72">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A14,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Bill</v>
+      </c>
+      <c r="C14" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A14,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Not completing milestones in the week due</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="72">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A15,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Kurt</v>
+      </c>
+      <c r="C15" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A15,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Not completing milestones in the week due</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A16,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Harry</v>
+      </c>
+      <c r="C16" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A16,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Charging time to the wrong SAP code</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="72">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A17,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Frank</v>
+      </c>
+      <c r="C17" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A17,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Not completing milestones in the week due</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="72">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A18,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Zoe</v>
+      </c>
+      <c r="C18" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A18,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Doing well, may be able to coach others</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="72">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A19,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Sue</v>
+      </c>
+      <c r="C19" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A19,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Doing well, may be able to coach others</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="72">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A20,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A20,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="72">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="72">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="72">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A23,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A23,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="72">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A24,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A24,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="72">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A25,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A25,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="72">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A26,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A26,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="72">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A27,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A27,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="72">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A28,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A28,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="72">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A29,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A29,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="72">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A30,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A30,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="72">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A31,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A31,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="72">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A32,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A32,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="72">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A33,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A33,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="72">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A34,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A34,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="72">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A35,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A35,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="72">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A36,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A36,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="72">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A37,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A37,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A38,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A38,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="72">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A39,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A39,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="72">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A40,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A40,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="72">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A41,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A41,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="72">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A42,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A42,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="72">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A43,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A43,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="72">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A44,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A44,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="72">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A45,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A45,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="72">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A46,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A46,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="72">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A47,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A47,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="72">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A48,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A48,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="72">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A49,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A49,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="72">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A50,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A50,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="72">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A51,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A51,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="72">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A52,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C52" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A52,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="72">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A53,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A53,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="72">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A54,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A54,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="72">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A55,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A55,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="72">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A56,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A56,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="72">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A57,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C57" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A57,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="72">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A58,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C58" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A58,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="72">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A59,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A59,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="72">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A60,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A60,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="72">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A61,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A61,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="72">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A62,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C62" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A62,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="72">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A63,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C63" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A63,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="72">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A64,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C64" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A64,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="72">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A65,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C65" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A65,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="72">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A66,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C66" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A66,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="72">
+        <f t="shared" ref="A67:A101" si="1">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A67,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C67" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A67,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="72">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A68,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C68" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A68,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="72">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A69,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C69" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A69,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="72">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A70,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C70" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A70,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="72">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A71,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C71" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A71,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="72">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A72,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A72,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="72">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A73,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A73,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="72">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A74,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C74" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A74,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="72">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A75,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C75" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A75,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="72">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A76,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C76" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A76,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="72">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A77,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C77" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A77,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="72">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A78,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A78,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="72">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A79,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A79,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="72">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A80,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C80" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A80,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="72">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A81,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C81" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A81,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="72">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A82,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C82" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A82,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="72">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A83,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C83" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A83,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="72">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A84,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C84" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A84,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="72">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A85,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C85" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A85,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="72">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A86,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A86,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="72">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A87,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A87,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="72">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A88,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A88,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="72">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A89,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A89,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="72">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A90,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C90" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A90,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="72">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A91,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C91" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A91,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="72">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A92,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C92" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A92,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="72">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A93,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C93" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A93,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="72">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A94,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A94,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="72">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A95,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A95,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="72">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A96,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A96,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="72">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A97,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A97,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="72">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A98,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A98,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="72">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A99,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A99,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="72">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A100,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C100" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A100,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="72">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="73" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A101,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A101,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK102"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3:L20"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,23 +2908,23 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(C2:AK2)</f>
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C2" s="41">
         <f>SUM(C3:C102)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="41">
         <f t="shared" ref="D2:AK2" si="0">SUM(D3:D102)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="41">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" s="41">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="41">
         <f t="shared" si="0"/>
@@ -1680,20 +3317,18 @@
       </c>
       <c r="B8" s="58">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="49">
+        <v>5</v>
+      </c>
+      <c r="E8" s="49">
         <v>4</v>
       </c>
-      <c r="E8" s="49">
-        <v>5</v>
-      </c>
-      <c r="F8" s="49">
-        <v>2</v>
-      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
       <c r="I8" s="49"/>
@@ -5799,7 +7434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE102"/>
   <sheetViews>
@@ -5807,7 +7442,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6190,9 +7825,7 @@
       <c r="D8" s="44">
         <v>1</v>
       </c>
-      <c r="E8" s="44">
-        <v>0.53333333333333333</v>
-      </c>
+      <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -9459,15 +11092,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AR102"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9482,10 +11115,12 @@
     <col min="21" max="21" width="3.7109375" style="7" customWidth="1"/>
     <col min="22" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="31" width="3.7109375" style="7" customWidth="1"/>
-    <col min="32" max="38" width="6.5703125" style="2" customWidth="1"/>
+    <col min="32" max="40" width="6.5703125" style="2" customWidth="1"/>
+    <col min="41" max="41" width="44.140625" style="64" customWidth="1"/>
+    <col min="42" max="44" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="24" t="s">
         <v>15</v>
@@ -9532,8 +11167,16 @@
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
-    </row>
-    <row r="2" spans="1:38" ht="72" x14ac:dyDescent="0.25">
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="68"/>
+    </row>
+    <row r="2" spans="1:44" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -9670,16 +11313,34 @@
         <v>21</v>
       </c>
       <c r="AJ2" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK2" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="AK2" s="23" t="s">
+      <c r="AM2" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="23" t="s">
+      <c r="AN2" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO2" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ2" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR2" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="str">
         <f>SAP!A3</f>
         <v>Fred</v>
@@ -9820,20 +11481,44 @@
         <f ca="1">IF(AF3=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ3" s="19">
+      <c r="AJ3" s="20">
+        <f ca="1">AG3-AF3</f>
+        <v>-7.5</v>
+      </c>
+      <c r="AK3" s="20">
+        <f ca="1">AG3-AH3</f>
+        <v>-7.5</v>
+      </c>
+      <c r="AL3" s="19">
         <f ca="1">IFERROR(AG3/AF3,0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK3" s="19">
+      <c r="AM3" s="19">
         <f ca="1">IF(AF3=0,"",AG3/AH3)</f>
         <v>0.5</v>
       </c>
-      <c r="AL3" s="19">
+      <c r="AN3" s="19">
         <f ca="1">IF(AF3=0,"",IFERROR((AI3-AG3)/(AI3-AF3),0))</f>
         <v>1.1666666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO3" s="63" t="str">
+        <f t="shared" ref="AO3:AO34" ca="1" si="0">IF(A3=0,"",IFERROR(VLOOKUP(IF(AND(AL3&lt;0.8,AM3&lt;0.8),"know",IF(AL3&lt;0.8,"cost",IF(AM3&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP3" s="70">
+        <f ca="1">AJ3+AK3</f>
+        <v>-15</v>
+      </c>
+      <c r="AQ3" s="70">
+        <f ca="1">IF(AP3=0,"",AP3+(1-COUNTIF(AP$3:AP3,AP3))/1000)</f>
+        <v>-15</v>
+      </c>
+      <c r="AR3" s="69">
+        <f ca="1">IF(AP3=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="str">
         <f>SAP!A4</f>
         <v>Sue</v>
@@ -9963,7 +11648,7 @@
         <v>7</v>
       </c>
       <c r="AG4" s="19">
-        <f t="shared" ref="AG4:AG67" ca="1" si="0">SUM(B4:AE4)</f>
+        <f t="shared" ref="AG4:AG67" ca="1" si="1">SUM(B4:AE4)</f>
         <v>15</v>
       </c>
       <c r="AH4" s="19">
@@ -9974,20 +11659,44 @@
         <f ca="1">IF(AF4=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ4" s="19">
-        <f t="shared" ref="AJ4:AJ67" ca="1" si="1">IFERROR(AG4/AF4,0)</f>
+      <c r="AJ4" s="20">
+        <f t="shared" ref="AJ4:AJ20" ca="1" si="2">AG4-AF4</f>
+        <v>8</v>
+      </c>
+      <c r="AK4" s="20">
+        <f t="shared" ref="AK4:AK20" ca="1" si="3">AG4-AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
+        <f t="shared" ref="AL4:AL67" ca="1" si="4">IFERROR(AG4/AF4,0)</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="AK4" s="19">
-        <f t="shared" ref="AK4:AK67" ca="1" si="2">IF(AF4=0,"",AG4/AH4)</f>
+      <c r="AM4" s="19">
+        <f t="shared" ref="AM4:AM67" ca="1" si="5">IF(AF4=0,"",AG4/AH4)</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="19">
-        <f t="shared" ref="AL4:AL67" ca="1" si="3">IF(AF4=0,"",IFERROR((AI4-AG4)/(AI4-AF4),0))</f>
+      <c r="AN4" s="19">
+        <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",IFERROR((AI4-AG4)/(AI4-AF4),0))</f>
         <v>0.84905660377358494</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO4" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Doing well, may be able to coach others</v>
+      </c>
+      <c r="AP4" s="70">
+        <f t="shared" ref="AP4:AP67" ca="1" si="7">AJ4+AK4</f>
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="70">
+        <f ca="1">IF(AP4=0,"",AP4+(1-COUNTIF(AP$3:AP4,AP4))/1000)</f>
+        <v>8</v>
+      </c>
+      <c r="AR4" s="69">
+        <f t="shared" ref="AR4:AR67" ca="1" si="8">IF(AP4=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ4))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="str">
         <f>SAP!A5</f>
         <v>Zoe</v>
@@ -10117,7 +11826,7 @@
         <v>12</v>
       </c>
       <c r="AG5" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="AH5" s="19">
@@ -10128,20 +11837,44 @@
         <f ca="1">IF(AF5=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ5" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ5" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AK5" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="AK5" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM5" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="AL5" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN5" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO5" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Doing well, may be able to coach others</v>
+      </c>
+      <c r="AP5" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="70">
+        <f ca="1">IF(AP5=0,"",AP5+(1-COUNTIF(AP$3:AP5,AP5))/1000)</f>
+        <v>3</v>
+      </c>
+      <c r="AR5" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="str">
         <f>SAP!A6</f>
         <v>Kurt</v>
@@ -10271,7 +12004,7 @@
         <v>9</v>
       </c>
       <c r="AG6" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH6" s="19">
@@ -10282,20 +12015,44 @@
         <f ca="1">IF(AF6=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ6" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ6" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AK6" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL6" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AK6" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM6" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL6" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN6" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0294117647058822</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO6" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Not completing milestones in the week due</v>
+      </c>
+      <c r="AP6" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="AQ6" s="70">
+        <f ca="1">IF(AP6=0,"",AP6+(1-COUNTIF(AP$3:AP6,AP6))/1000)</f>
+        <v>-9</v>
+      </c>
+      <c r="AR6" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="str">
         <f>SAP!A7</f>
         <v>Stu</v>
@@ -10425,7 +12182,7 @@
         <v>6</v>
       </c>
       <c r="AG7" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH7" s="19">
@@ -10436,20 +12193,44 @@
         <f ca="1">IF(AF7=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ7" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ7" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.25</v>
+      </c>
+      <c r="AK7" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL7" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.625</v>
       </c>
-      <c r="AK7" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM7" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL7" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN7" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0416666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO7" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP7" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-13.5</v>
+      </c>
+      <c r="AQ7" s="70">
+        <f ca="1">IF(AP7=0,"",AP7+(1-COUNTIF(AP$3:AP7,AP7))/1000)</f>
+        <v>-13.5</v>
+      </c>
+      <c r="AR7" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="str">
         <f>SAP!A8</f>
         <v>Frank</v>
@@ -10576,10 +12357,10 @@
       </c>
       <c r="AF8" s="18">
         <f ca="1">IFERROR(OFFSET(SAP!$B$1,MATCH(EV!$A8,SAP!$A:$A,0)-1,0),0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AG8" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>11.25</v>
       </c>
       <c r="AH8" s="19">
@@ -10590,20 +12371,44 @@
         <f ca="1">IF(AF8=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ8" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.66176470588235292</v>
-      </c>
-      <c r="AK8" s="19">
+      <c r="AJ8" s="20">
         <f t="shared" ca="1" si="2"/>
+        <v>-2.75</v>
+      </c>
+      <c r="AK8" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-3.75</v>
+      </c>
+      <c r="AL8" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.8035714285714286</v>
+      </c>
+      <c r="AM8" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.75</v>
       </c>
-      <c r="AL8" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.1337209302325582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN8" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0597826086956521</v>
+      </c>
+      <c r="AO8" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Not completing milestones in the week due</v>
+      </c>
+      <c r="AP8" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-6.5</v>
+      </c>
+      <c r="AQ8" s="70">
+        <f ca="1">IF(AP8=0,"",AP8+(1-COUNTIF(AP$3:AP8,AP8))/1000)</f>
+        <v>-6.5</v>
+      </c>
+      <c r="AR8" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="str">
         <f>SAP!A9</f>
         <v>Nancy</v>
@@ -10733,7 +12538,7 @@
         <v>4</v>
       </c>
       <c r="AG9" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH9" s="19">
@@ -10744,20 +12549,44 @@
         <f ca="1">IF(AF9=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ9" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ9" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-0.25</v>
+      </c>
+      <c r="AK9" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL9" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.9375</v>
       </c>
-      <c r="AK9" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM9" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL9" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN9" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0044642857142858</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO9" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Not completing milestones in the week due</v>
+      </c>
+      <c r="AP9" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-11.5</v>
+      </c>
+      <c r="AQ9" s="70">
+        <f ca="1">IF(AP9=0,"",AP9+(1-COUNTIF(AP$3:AP9,AP9))/1000)</f>
+        <v>-11.5</v>
+      </c>
+      <c r="AR9" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="str">
         <f>SAP!A10</f>
         <v>Bill</v>
@@ -10887,7 +12716,7 @@
         <v>9</v>
       </c>
       <c r="AG10" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH10" s="19">
@@ -10898,20 +12727,44 @@
         <f ca="1">IF(AF10=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ10" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ10" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1.5</v>
+      </c>
+      <c r="AK10" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL10" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="AK10" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM10" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL10" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN10" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0294117647058822</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO10" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Not completing milestones in the week due</v>
+      </c>
+      <c r="AP10" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-9</v>
+      </c>
+      <c r="AQ10" s="70">
+        <f ca="1">IF(AP10=0,"",AP10+(1-COUNTIF(AP$3:AP10,AP10))/1000)</f>
+        <v>-9.0009999999999994</v>
+      </c>
+      <c r="AR10" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="str">
         <f>SAP!A11</f>
         <v>Ted</v>
@@ -11041,7 +12894,7 @@
         <v>7</v>
       </c>
       <c r="AG11" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH11" s="19">
@@ -11052,20 +12905,44 @@
         <f ca="1">IF(AF11=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ11" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ11" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-3.25</v>
+      </c>
+      <c r="AK11" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL11" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="AK11" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM11" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL11" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN11" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0613207547169812</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO11" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP11" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-14.5</v>
+      </c>
+      <c r="AQ11" s="70">
+        <f ca="1">IF(AP11=0,"",AP11+(1-COUNTIF(AP$3:AP11,AP11))/1000)</f>
+        <v>-14.5</v>
+      </c>
+      <c r="AR11" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="str">
         <f>SAP!A12</f>
         <v>Tom</v>
@@ -11195,7 +13072,7 @@
         <v>13</v>
       </c>
       <c r="AG12" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH12" s="19">
@@ -11206,20 +13083,44 @@
         <f ca="1">IF(AF12=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ12" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ12" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.5</v>
+      </c>
+      <c r="AK12" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL12" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="AK12" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM12" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL12" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN12" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.1170212765957446</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO12" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP12" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="AQ12" s="70">
+        <f ca="1">IF(AP12=0,"",AP12+(1-COUNTIF(AP$3:AP12,AP12))/1000)</f>
+        <v>-13</v>
+      </c>
+      <c r="AR12" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="str">
         <f>SAP!A13</f>
         <v>Dick</v>
@@ -11349,7 +13250,7 @@
         <v>12</v>
       </c>
       <c r="AG13" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH13" s="19">
@@ -11360,20 +13261,44 @@
         <f ca="1">IF(AF13=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ13" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ13" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.5</v>
+      </c>
+      <c r="AK13" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL13" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.625</v>
       </c>
-      <c r="AK13" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM13" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL13" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN13" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.09375</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO13" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP13" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-12</v>
+      </c>
+      <c r="AQ13" s="70">
+        <f ca="1">IF(AP13=0,"",AP13+(1-COUNTIF(AP$3:AP13,AP13))/1000)</f>
+        <v>-12</v>
+      </c>
+      <c r="AR13" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="str">
         <f>SAP!A14</f>
         <v>Harry</v>
@@ -11503,7 +13428,7 @@
         <v>22</v>
       </c>
       <c r="AG14" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="AH14" s="19">
@@ -11514,20 +13439,44 @@
         <f ca="1">IF(AF14=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ14" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ14" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="AK14" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.68181818181818177</v>
       </c>
-      <c r="AK14" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM14" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="AL14" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN14" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.1842105263157894</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO14" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Charging time to the wrong SAP code</v>
+      </c>
+      <c r="AP14" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-7</v>
+      </c>
+      <c r="AQ14" s="70">
+        <f ca="1">IF(AP14=0,"",AP14+(1-COUNTIF(AP$3:AP14,AP14))/1000)</f>
+        <v>-7</v>
+      </c>
+      <c r="AR14" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="str">
         <f>SAP!A15</f>
         <v>Mona</v>
@@ -11657,7 +13606,7 @@
         <v>8</v>
       </c>
       <c r="AG15" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH15" s="19">
@@ -11668,20 +13617,44 @@
         <f ca="1">IF(AF15=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ15" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ15" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-4.25</v>
+      </c>
+      <c r="AK15" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL15" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.46875</v>
       </c>
-      <c r="AK15" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM15" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL15" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN15" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0817307692307692</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO15" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP15" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-15.5</v>
+      </c>
+      <c r="AQ15" s="70">
+        <f ca="1">IF(AP15=0,"",AP15+(1-COUNTIF(AP$3:AP15,AP15))/1000)</f>
+        <v>-15.5</v>
+      </c>
+      <c r="AR15" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="str">
         <f>SAP!A16</f>
         <v>Kathy</v>
@@ -11811,7 +13784,7 @@
         <v>10</v>
       </c>
       <c r="AG16" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH16" s="19">
@@ -11822,20 +13795,44 @@
         <f ca="1">IF(AF16=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ16" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ16" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.25</v>
+      </c>
+      <c r="AK16" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL16" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.375</v>
       </c>
-      <c r="AK16" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM16" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL16" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN16" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO16" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP16" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-17.5</v>
+      </c>
+      <c r="AQ16" s="70">
+        <f ca="1">IF(AP16=0,"",AP16+(1-COUNTIF(AP$3:AP16,AP16))/1000)</f>
+        <v>-17.5</v>
+      </c>
+      <c r="AR16" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="str">
         <f>SAP!A17</f>
         <v>Lynda</v>
@@ -11965,7 +13962,7 @@
         <v>14</v>
       </c>
       <c r="AG17" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH17" s="19">
@@ -11976,20 +13973,44 @@
         <f ca="1">IF(AF17=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ17" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ17" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.5</v>
+      </c>
+      <c r="AK17" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL17" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="AK17" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM17" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL17" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN17" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.1413043478260869</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO17" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP17" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="AQ17" s="70">
+        <f ca="1">IF(AP17=0,"",AP17+(1-COUNTIF(AP$3:AP17,AP17))/1000)</f>
+        <v>-14</v>
+      </c>
+      <c r="AR17" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="str">
         <f>SAP!A18</f>
         <v>Judy</v>
@@ -12119,7 +14140,7 @@
         <v>14</v>
       </c>
       <c r="AG18" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH18" s="19">
@@ -12130,20 +14151,44 @@
         <f ca="1">IF(AF18=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ18" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ18" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-6.5</v>
+      </c>
+      <c r="AK18" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL18" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="AK18" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM18" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL18" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN18" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.1413043478260869</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO18" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP18" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-14</v>
+      </c>
+      <c r="AQ18" s="70">
+        <f ca="1">IF(AP18=0,"",AP18+(1-COUNTIF(AP$3:AP18,AP18))/1000)</f>
+        <v>-14.000999999999999</v>
+      </c>
+      <c r="AR18" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="str">
         <f>SAP!A19</f>
         <v>Henry</v>
@@ -12273,7 +14318,7 @@
         <v>13</v>
       </c>
       <c r="AG19" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>7.5</v>
       </c>
       <c r="AH19" s="19">
@@ -12284,20 +14329,44 @@
         <f ca="1">IF(AF19=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ19" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ19" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5.5</v>
+      </c>
+      <c r="AK19" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-7.5</v>
+      </c>
+      <c r="AL19" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.57692307692307687</v>
       </c>
-      <c r="AK19" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM19" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="AL19" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN19" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.1170212765957446</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO19" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP19" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-13</v>
+      </c>
+      <c r="AQ19" s="70">
+        <f ca="1">IF(AP19=0,"",AP19+(1-COUNTIF(AP$3:AP19,AP19))/1000)</f>
+        <v>-13.000999999999999</v>
+      </c>
+      <c r="AR19" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="str">
         <f>SAP!A20</f>
         <v>Mike</v>
@@ -12427,7 +14496,7 @@
         <v>6</v>
       </c>
       <c r="AG20" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>3.75</v>
       </c>
       <c r="AH20" s="19">
@@ -12438,20 +14507,44 @@
         <f ca="1">IF(AF20=0,"",Plan!$D$11)</f>
         <v>60</v>
       </c>
-      <c r="AJ20" s="19">
-        <f t="shared" ca="1" si="1"/>
+      <c r="AJ20" s="20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-2.25</v>
+      </c>
+      <c r="AK20" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11.25</v>
+      </c>
+      <c r="AL20" s="19">
+        <f t="shared" ca="1" si="4"/>
         <v>0.625</v>
       </c>
-      <c r="AK20" s="19">
-        <f t="shared" ca="1" si="2"/>
+      <c r="AM20" s="19">
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
-      <c r="AL20" s="19">
-        <f t="shared" ca="1" si="3"/>
+      <c r="AN20" s="19">
+        <f t="shared" ca="1" si="6"/>
         <v>1.0416666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AO20" s="63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>May be having difficulty with the material</v>
+      </c>
+      <c r="AP20" s="70">
+        <f t="shared" ca="1" si="7"/>
+        <v>-13.5</v>
+      </c>
+      <c r="AQ20" s="70">
+        <f ca="1">IF(AP20=0,"",AP20+(1-COUNTIF(AP$3:AP20,AP20))/1000)</f>
+        <v>-13.500999999999999</v>
+      </c>
+      <c r="AR20" s="69">
+        <f t="shared" ca="1" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="35">
         <f>SAP!A21</f>
         <v>0</v>
@@ -12581,7 +14674,7 @@
         <v>0</v>
       </c>
       <c r="AG21" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH21" s="19" t="str">
@@ -12592,20 +14685,38 @@
         <f ca="1">IF(AF21=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ21" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL21" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN21" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO21" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP21" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="70" t="str">
+        <f>IF(AP21=0,"",AP21+(1-COUNTIF(AP$3:AP21,AP21))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR21" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="35">
         <f>SAP!A22</f>
         <v>0</v>
@@ -12735,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH22" s="19" t="str">
@@ -12746,20 +14857,38 @@
         <f ca="1">IF(AF22=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ22" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK22" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL22" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN22" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO22" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP22" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="70" t="str">
+        <f>IF(AP22=0,"",AP22+(1-COUNTIF(AP$3:AP22,AP22))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR22" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="35">
         <f>SAP!A23</f>
         <v>0</v>
@@ -12889,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="AG23" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH23" s="19" t="str">
@@ -12900,20 +15029,38 @@
         <f ca="1">IF(AF23=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ23" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK23" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL23" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM23" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN23" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO23" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP23" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="70" t="str">
+        <f>IF(AP23=0,"",AP23+(1-COUNTIF(AP$3:AP23,AP23))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR23" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="35">
         <f>SAP!A24</f>
         <v>0</v>
@@ -13043,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH24" s="19" t="str">
@@ -13054,20 +15201,38 @@
         <f ca="1">IF(AF24=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ24" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK24" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL24" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM24" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN24" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO24" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP24" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="70" t="str">
+        <f>IF(AP24=0,"",AP24+(1-COUNTIF(AP$3:AP24,AP24))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR24" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="35">
         <f>SAP!A25</f>
         <v>0</v>
@@ -13197,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH25" s="19" t="str">
@@ -13208,20 +15373,38 @@
         <f ca="1">IF(AF25=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ25" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK25" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL25" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM25" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN25" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO25" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP25" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="70" t="str">
+        <f>IF(AP25=0,"",AP25+(1-COUNTIF(AP$3:AP25,AP25))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR25" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="35">
         <f>SAP!A26</f>
         <v>0</v>
@@ -13351,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH26" s="19" t="str">
@@ -13362,20 +15545,38 @@
         <f ca="1">IF(AF26=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ26" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL26" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM26" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN26" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO26" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP26" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="70" t="str">
+        <f>IF(AP26=0,"",AP26+(1-COUNTIF(AP$3:AP26,AP26))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR26" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="35">
         <f>SAP!A27</f>
         <v>0</v>
@@ -13505,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="AG27" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH27" s="19" t="str">
@@ -13516,20 +15717,38 @@
         <f ca="1">IF(AF27=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ27" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL27" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM27" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN27" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO27" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP27" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="70" t="str">
+        <f>IF(AP27=0,"",AP27+(1-COUNTIF(AP$3:AP27,AP27))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR27" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="35">
         <f>SAP!A28</f>
         <v>0</v>
@@ -13659,7 +15878,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH28" s="19" t="str">
@@ -13670,20 +15889,38 @@
         <f ca="1">IF(AF28=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ28" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL28" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN28" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO28" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP28" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="70" t="str">
+        <f>IF(AP28=0,"",AP28+(1-COUNTIF(AP$3:AP28,AP28))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR28" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="35">
         <f>SAP!A29</f>
         <v>0</v>
@@ -13813,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH29" s="19" t="str">
@@ -13824,20 +16061,38 @@
         <f ca="1">IF(AF29=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ29" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL29" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM29" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN29" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO29" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP29" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="70" t="str">
+        <f>IF(AP29=0,"",AP29+(1-COUNTIF(AP$3:AP29,AP29))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR29" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="35">
         <f>SAP!A30</f>
         <v>0</v>
@@ -13967,7 +16222,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH30" s="19" t="str">
@@ -13978,20 +16233,38 @@
         <f ca="1">IF(AF30=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ30" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK30" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL30" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM30" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN30" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO30" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP30" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="70" t="str">
+        <f>IF(AP30=0,"",AP30+(1-COUNTIF(AP$3:AP30,AP30))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR30" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="35">
         <f>SAP!A31</f>
         <v>0</v>
@@ -14121,7 +16394,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH31" s="19" t="str">
@@ -14132,20 +16405,38 @@
         <f ca="1">IF(AF31=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ31" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK31" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL31" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN31" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO31" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP31" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="70" t="str">
+        <f>IF(AP31=0,"",AP31+(1-COUNTIF(AP$3:AP31,AP31))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR31" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="35">
         <f>SAP!A32</f>
         <v>0</v>
@@ -14275,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH32" s="19" t="str">
@@ -14286,20 +16577,38 @@
         <f ca="1">IF(AF32=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ32" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK32" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL32" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM32" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN32" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO32" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP32" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="70" t="str">
+        <f>IF(AP32=0,"",AP32+(1-COUNTIF(AP$3:AP32,AP32))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR32" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="35">
         <f>SAP!A33</f>
         <v>0</v>
@@ -14429,7 +16738,7 @@
         <v>0</v>
       </c>
       <c r="AG33" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH33" s="19" t="str">
@@ -14440,20 +16749,38 @@
         <f ca="1">IF(AF33=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ33" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK33" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL33" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM33" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN33" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO33" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP33" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="70" t="str">
+        <f>IF(AP33=0,"",AP33+(1-COUNTIF(AP$3:AP33,AP33))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR33" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="35">
         <f>SAP!A34</f>
         <v>0</v>
@@ -14583,7 +16910,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH34" s="19" t="str">
@@ -14594,20 +16921,38 @@
         <f ca="1">IF(AF34=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ34" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK34" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL34" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM34" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN34" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO34" s="63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AP34" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="70" t="str">
+        <f>IF(AP34=0,"",AP34+(1-COUNTIF(AP$3:AP34,AP34))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR34" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="35">
         <f>SAP!A35</f>
         <v>0</v>
@@ -14737,7 +17082,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH35" s="19" t="str">
@@ -14748,20 +17093,38 @@
         <f ca="1">IF(AF35=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ35" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK35" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL35" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM35" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN35" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO35" s="63" t="str">
+        <f t="shared" ref="AO35:AO66" si="9">IF(A35=0,"",IFERROR(VLOOKUP(IF(AND(AL35&lt;0.8,AM35&lt;0.8),"know",IF(AL35&lt;0.8,"cost",IF(AM35&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="AP35" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="70" t="str">
+        <f>IF(AP35=0,"",AP35+(1-COUNTIF(AP$3:AP35,AP35))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR35" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="35">
         <f>SAP!A36</f>
         <v>0</v>
@@ -14891,7 +17254,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH36" s="19" t="str">
@@ -14902,20 +17265,38 @@
         <f ca="1">IF(AF36=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ36" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK36" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL36" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM36" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN36" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO36" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP36" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="70" t="str">
+        <f>IF(AP36=0,"",AP36+(1-COUNTIF(AP$3:AP36,AP36))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR36" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="35">
         <f>SAP!A37</f>
         <v>0</v>
@@ -15045,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH37" s="19" t="str">
@@ -15056,20 +17437,38 @@
         <f ca="1">IF(AF37=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ37" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK37" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL37" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM37" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN37" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO37" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP37" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="70" t="str">
+        <f>IF(AP37=0,"",AP37+(1-COUNTIF(AP$3:AP37,AP37))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR37" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="35">
         <f>SAP!A38</f>
         <v>0</v>
@@ -15199,7 +17598,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH38" s="19" t="str">
@@ -15210,20 +17609,38 @@
         <f ca="1">IF(AF38=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ38" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK38" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL38" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN38" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO38" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP38" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="70" t="str">
+        <f>IF(AP38=0,"",AP38+(1-COUNTIF(AP$3:AP38,AP38))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR38" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="35">
         <f>SAP!A39</f>
         <v>0</v>
@@ -15353,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH39" s="19" t="str">
@@ -15364,20 +17781,38 @@
         <f ca="1">IF(AF39=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ39" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK39" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL39" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM39" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN39" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO39" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP39" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="70" t="str">
+        <f>IF(AP39=0,"",AP39+(1-COUNTIF(AP$3:AP39,AP39))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR39" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="35">
         <f>SAP!A40</f>
         <v>0</v>
@@ -15507,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH40" s="19" t="str">
@@ -15518,20 +17953,38 @@
         <f ca="1">IF(AF40=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ40" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL40" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM40" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN40" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO40" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP40" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="70" t="str">
+        <f>IF(AP40=0,"",AP40+(1-COUNTIF(AP$3:AP40,AP40))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR40" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="35">
         <f>SAP!A41</f>
         <v>0</v>
@@ -15661,7 +18114,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH41" s="19" t="str">
@@ -15672,20 +18125,38 @@
         <f ca="1">IF(AF41=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ41" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK41" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL41" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM41" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN41" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO41" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP41" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="70" t="str">
+        <f>IF(AP41=0,"",AP41+(1-COUNTIF(AP$3:AP41,AP41))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR41" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="35">
         <f>SAP!A42</f>
         <v>0</v>
@@ -15815,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH42" s="19" t="str">
@@ -15826,20 +18297,38 @@
         <f ca="1">IF(AF42=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ42" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK42" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL42" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM42" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN42" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO42" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP42" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="70" t="str">
+        <f>IF(AP42=0,"",AP42+(1-COUNTIF(AP$3:AP42,AP42))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR42" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="35">
         <f>SAP!A43</f>
         <v>0</v>
@@ -15969,7 +18458,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH43" s="19" t="str">
@@ -15980,20 +18469,38 @@
         <f ca="1">IF(AF43=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ43" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK43" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL43" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM43" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN43" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO43" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP43" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="70" t="str">
+        <f>IF(AP43=0,"",AP43+(1-COUNTIF(AP$3:AP43,AP43))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR43" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="35">
         <f>SAP!A44</f>
         <v>0</v>
@@ -16123,7 +18630,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH44" s="19" t="str">
@@ -16134,20 +18641,38 @@
         <f ca="1">IF(AF44=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ44" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK44" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL44" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN44" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO44" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP44" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="70" t="str">
+        <f>IF(AP44=0,"",AP44+(1-COUNTIF(AP$3:AP44,AP44))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR44" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="35">
         <f>SAP!A45</f>
         <v>0</v>
@@ -16277,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH45" s="19" t="str">
@@ -16288,20 +18813,38 @@
         <f ca="1">IF(AF45=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ45" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL45" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN45" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO45" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP45" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="70" t="str">
+        <f>IF(AP45=0,"",AP45+(1-COUNTIF(AP$3:AP45,AP45))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR45" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <f>SAP!A46</f>
         <v>0</v>
@@ -16431,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH46" s="19" t="str">
@@ -16442,20 +18985,38 @@
         <f ca="1">IF(AF46=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ46" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL46" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM46" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN46" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO46" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP46" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="70" t="str">
+        <f>IF(AP46=0,"",AP46+(1-COUNTIF(AP$3:AP46,AP46))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR46" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="35">
         <f>SAP!A47</f>
         <v>0</v>
@@ -16585,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH47" s="19" t="str">
@@ -16596,20 +19157,38 @@
         <f ca="1">IF(AF47=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ47" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL47" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM47" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN47" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO47" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP47" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="70" t="str">
+        <f>IF(AP47=0,"",AP47+(1-COUNTIF(AP$3:AP47,AP47))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR47" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="35">
         <f>SAP!A48</f>
         <v>0</v>
@@ -16739,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="AG48" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH48" s="19" t="str">
@@ -16750,20 +19329,38 @@
         <f ca="1">IF(AF48=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ48" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL48" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="20"/>
+      <c r="AL48" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN48" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO48" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP48" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="70" t="str">
+        <f>IF(AP48=0,"",AP48+(1-COUNTIF(AP$3:AP48,AP48))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR48" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="35">
         <f>SAP!A49</f>
         <v>0</v>
@@ -16893,7 +19490,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH49" s="19" t="str">
@@ -16904,20 +19501,38 @@
         <f ca="1">IF(AF49=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ49" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL49" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="20"/>
+      <c r="AL49" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM49" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN49" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO49" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP49" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="70" t="str">
+        <f>IF(AP49=0,"",AP49+(1-COUNTIF(AP$3:AP49,AP49))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR49" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="35">
         <f>SAP!A50</f>
         <v>0</v>
@@ -17047,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH50" s="19" t="str">
@@ -17058,20 +19673,38 @@
         <f ca="1">IF(AF50=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ50" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL50" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN50" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO50" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP50" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="70" t="str">
+        <f>IF(AP50=0,"",AP50+(1-COUNTIF(AP$3:AP50,AP50))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR50" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="35">
         <f>SAP!A51</f>
         <v>0</v>
@@ -17201,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH51" s="19" t="str">
@@ -17212,20 +19845,38 @@
         <f ca="1">IF(AF51=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ51" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK51" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL51" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN51" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO51" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP51" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="70" t="str">
+        <f>IF(AP51=0,"",AP51+(1-COUNTIF(AP$3:AP51,AP51))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR51" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="35">
         <f>SAP!A52</f>
         <v>0</v>
@@ -17355,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="AG52" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH52" s="19" t="str">
@@ -17366,20 +20017,38 @@
         <f ca="1">IF(AF52=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ52" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK52" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL52" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="20"/>
+      <c r="AL52" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN52" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO52" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP52" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="70" t="str">
+        <f>IF(AP52=0,"",AP52+(1-COUNTIF(AP$3:AP52,AP52))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR52" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="35">
         <f>SAP!A53</f>
         <v>0</v>
@@ -17509,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH53" s="19" t="str">
@@ -17520,20 +20189,38 @@
         <f ca="1">IF(AF53=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ53" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK53" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL53" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="20"/>
+      <c r="AL53" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN53" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO53" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP53" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="70" t="str">
+        <f>IF(AP53=0,"",AP53+(1-COUNTIF(AP$3:AP53,AP53))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR53" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="35">
         <f>SAP!A54</f>
         <v>0</v>
@@ -17663,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="AG54" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH54" s="19" t="str">
@@ -17674,20 +20361,38 @@
         <f ca="1">IF(AF54=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ54" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK54" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL54" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="20"/>
+      <c r="AL54" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM54" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN54" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO54" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP54" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="70" t="str">
+        <f>IF(AP54=0,"",AP54+(1-COUNTIF(AP$3:AP54,AP54))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR54" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="35">
         <f>SAP!A55</f>
         <v>0</v>
@@ -17817,7 +20522,7 @@
         <v>0</v>
       </c>
       <c r="AG55" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH55" s="19" t="str">
@@ -17828,20 +20533,38 @@
         <f ca="1">IF(AF55=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ55" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK55" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL55" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM55" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN55" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO55" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP55" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="70" t="str">
+        <f>IF(AP55=0,"",AP55+(1-COUNTIF(AP$3:AP55,AP55))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR55" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="35">
         <f>SAP!A56</f>
         <v>0</v>
@@ -17971,7 +20694,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH56" s="19" t="str">
@@ -17982,20 +20705,38 @@
         <f ca="1">IF(AF56=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ56" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK56" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL56" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM56" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN56" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO56" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP56" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="70" t="str">
+        <f>IF(AP56=0,"",AP56+(1-COUNTIF(AP$3:AP56,AP56))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR56" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <f>SAP!A57</f>
         <v>0</v>
@@ -18125,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH57" s="19" t="str">
@@ -18136,20 +20877,38 @@
         <f ca="1">IF(AF57=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ57" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK57" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL57" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="20"/>
+      <c r="AL57" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM57" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN57" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO57" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP57" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="70" t="str">
+        <f>IF(AP57=0,"",AP57+(1-COUNTIF(AP$3:AP57,AP57))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR57" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <f>SAP!A58</f>
         <v>0</v>
@@ -18279,7 +21038,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH58" s="19" t="str">
@@ -18290,20 +21049,38 @@
         <f ca="1">IF(AF58=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ58" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL58" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="20"/>
+      <c r="AL58" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM58" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN58" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO58" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP58" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="70" t="str">
+        <f>IF(AP58=0,"",AP58+(1-COUNTIF(AP$3:AP58,AP58))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR58" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="35">
         <f>SAP!A59</f>
         <v>0</v>
@@ -18433,7 +21210,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH59" s="19" t="str">
@@ -18444,20 +21221,38 @@
         <f ca="1">IF(AF59=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ59" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL59" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="20"/>
+      <c r="AK59" s="20"/>
+      <c r="AL59" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM59" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN59" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO59" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP59" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="70" t="str">
+        <f>IF(AP59=0,"",AP59+(1-COUNTIF(AP$3:AP59,AP59))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR59" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="35">
         <f>SAP!A60</f>
         <v>0</v>
@@ -18587,7 +21382,7 @@
         <v>0</v>
       </c>
       <c r="AG60" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH60" s="19" t="str">
@@ -18598,20 +21393,38 @@
         <f ca="1">IF(AF60=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ60" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK60" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL60" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="20"/>
+      <c r="AL60" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM60" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN60" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO60" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP60" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="70" t="str">
+        <f>IF(AP60=0,"",AP60+(1-COUNTIF(AP$3:AP60,AP60))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR60" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="35">
         <f>SAP!A61</f>
         <v>0</v>
@@ -18741,7 +21554,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH61" s="19" t="str">
@@ -18752,20 +21565,38 @@
         <f ca="1">IF(AF61=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ61" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK61" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL61" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="20"/>
+      <c r="AL61" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM61" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN61" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO61" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP61" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="70" t="str">
+        <f>IF(AP61=0,"",AP61+(1-COUNTIF(AP$3:AP61,AP61))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR61" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="35">
         <f>SAP!A62</f>
         <v>0</v>
@@ -18895,7 +21726,7 @@
         <v>0</v>
       </c>
       <c r="AG62" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH62" s="19" t="str">
@@ -18906,20 +21737,38 @@
         <f ca="1">IF(AF62=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ62" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL62" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="20"/>
+      <c r="AL62" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM62" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN62" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO62" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP62" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="70" t="str">
+        <f>IF(AP62=0,"",AP62+(1-COUNTIF(AP$3:AP62,AP62))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR62" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <f>SAP!A63</f>
         <v>0</v>
@@ -19049,7 +21898,7 @@
         <v>0</v>
       </c>
       <c r="AG63" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH63" s="19" t="str">
@@ -19060,20 +21909,38 @@
         <f ca="1">IF(AF63=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ63" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK63" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL63" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="20"/>
+      <c r="AL63" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM63" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN63" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO63" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP63" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="70" t="str">
+        <f>IF(AP63=0,"",AP63+(1-COUNTIF(AP$3:AP63,AP63))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR63" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="35">
         <f>SAP!A64</f>
         <v>0</v>
@@ -19203,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="AG64" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH64" s="19" t="str">
@@ -19214,20 +22081,38 @@
         <f ca="1">IF(AF64=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ64" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK64" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL64" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="20"/>
+      <c r="AL64" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM64" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN64" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO64" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP64" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="70" t="str">
+        <f>IF(AP64=0,"",AP64+(1-COUNTIF(AP$3:AP64,AP64))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR64" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="35">
         <f>SAP!A65</f>
         <v>0</v>
@@ -19357,7 +22242,7 @@
         <v>0</v>
       </c>
       <c r="AG65" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH65" s="19" t="str">
@@ -19368,20 +22253,38 @@
         <f ca="1">IF(AF65=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ65" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK65" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL65" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="20"/>
+      <c r="AL65" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM65" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN65" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO65" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP65" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="70" t="str">
+        <f>IF(AP65=0,"",AP65+(1-COUNTIF(AP$3:AP65,AP65))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR65" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="35">
         <f>SAP!A66</f>
         <v>0</v>
@@ -19511,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="AG66" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH66" s="19" t="str">
@@ -19522,20 +22425,38 @@
         <f ca="1">IF(AF66=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ66" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK66" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL66" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN66" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO66" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP66" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="70" t="str">
+        <f>IF(AP66=0,"",AP66+(1-COUNTIF(AP$3:AP66,AP66))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR66" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="35">
         <f>SAP!A67</f>
         <v>0</v>
@@ -19665,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AH67" s="19" t="str">
@@ -19676,20 +22597,38 @@
         <f ca="1">IF(AF67=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ67" s="19">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK67" s="19" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="AL67" s="19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="20"/>
+      <c r="AL67" s="19">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM67" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AN67" s="19" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="AO67" s="63" t="str">
+        <f t="shared" ref="AO67:AO102" si="10">IF(A67=0,"",IFERROR(VLOOKUP(IF(AND(AL67&lt;0.8,AM67&lt;0.8),"know",IF(AL67&lt;0.8,"cost",IF(AM67&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="AP67" s="70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="70" t="str">
+        <f>IF(AP67=0,"",AP67+(1-COUNTIF(AP$3:AP67,AP67))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR67" s="69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="35">
         <f>SAP!A68</f>
         <v>0</v>
@@ -19819,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="AG68" s="19">
-        <f t="shared" ref="AG68:AG102" ca="1" si="4">SUM(B68:AE68)</f>
+        <f t="shared" ref="AG68:AG102" ca="1" si="11">SUM(B68:AE68)</f>
         <v>0</v>
       </c>
       <c r="AH68" s="19" t="str">
@@ -19830,20 +22769,38 @@
         <f ca="1">IF(AF68=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ68" s="19">
-        <f t="shared" ref="AJ68:AJ102" ca="1" si="5">IFERROR(AG68/AF68,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK68" s="19" t="str">
-        <f t="shared" ref="AK68:AK102" ca="1" si="6">IF(AF68=0,"",AG68/AH68)</f>
-        <v/>
-      </c>
-      <c r="AL68" s="19" t="str">
-        <f t="shared" ref="AL68:AL102" ca="1" si="7">IF(AF68=0,"",IFERROR((AI68-AG68)/(AI68-AF68),0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="20"/>
+      <c r="AL68" s="19">
+        <f t="shared" ref="AL68:AL102" ca="1" si="12">IFERROR(AG68/AF68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM68" s="19" t="str">
+        <f t="shared" ref="AM68:AM102" ca="1" si="13">IF(AF68=0,"",AG68/AH68)</f>
+        <v/>
+      </c>
+      <c r="AN68" s="19" t="str">
+        <f t="shared" ref="AN68:AN102" ca="1" si="14">IF(AF68=0,"",IFERROR((AI68-AG68)/(AI68-AF68),0))</f>
+        <v/>
+      </c>
+      <c r="AO68" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP68" s="70">
+        <f t="shared" ref="AP68:AP102" si="15">AJ68+AK68</f>
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="70" t="str">
+        <f>IF(AP68=0,"",AP68+(1-COUNTIF(AP$3:AP68,AP68))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR68" s="69" t="str">
+        <f t="shared" ref="AR68:AR102" si="16">IF(AP68=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ68))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="35">
         <f>SAP!A69</f>
         <v>0</v>
@@ -19973,7 +22930,7 @@
         <v>0</v>
       </c>
       <c r="AG69" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH69" s="19" t="str">
@@ -19984,20 +22941,38 @@
         <f ca="1">IF(AF69=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ69" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK69" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL69" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="20"/>
+      <c r="AL69" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM69" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN69" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO69" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP69" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ69" s="70" t="str">
+        <f>IF(AP69=0,"",AP69+(1-COUNTIF(AP$3:AP69,AP69))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR69" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="35">
         <f>SAP!A70</f>
         <v>0</v>
@@ -20127,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="AG70" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH70" s="19" t="str">
@@ -20138,20 +23113,38 @@
         <f ca="1">IF(AF70=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ70" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK70" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL70" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="20"/>
+      <c r="AK70" s="20"/>
+      <c r="AL70" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM70" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN70" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO70" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP70" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="70" t="str">
+        <f>IF(AP70=0,"",AP70+(1-COUNTIF(AP$3:AP70,AP70))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR70" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="35">
         <f>SAP!A71</f>
         <v>0</v>
@@ -20281,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="AG71" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH71" s="19" t="str">
@@ -20292,20 +23285,38 @@
         <f ca="1">IF(AF71=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ71" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK71" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL71" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="20"/>
+      <c r="AL71" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM71" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN71" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO71" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP71" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="70" t="str">
+        <f>IF(AP71=0,"",AP71+(1-COUNTIF(AP$3:AP71,AP71))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR71" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="35">
         <f>SAP!A72</f>
         <v>0</v>
@@ -20435,7 +23446,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH72" s="19" t="str">
@@ -20446,20 +23457,38 @@
         <f ca="1">IF(AF72=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ72" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK72" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL72" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
+      <c r="AL72" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM72" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN72" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO72" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP72" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ72" s="70" t="str">
+        <f>IF(AP72=0,"",AP72+(1-COUNTIF(AP$3:AP72,AP72))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR72" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <f>SAP!A73</f>
         <v>0</v>
@@ -20589,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="AG73" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH73" s="19" t="str">
@@ -20600,20 +23629,38 @@
         <f ca="1">IF(AF73=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ73" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK73" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL73" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="20"/>
+      <c r="AL73" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN73" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO73" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP73" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="70" t="str">
+        <f>IF(AP73=0,"",AP73+(1-COUNTIF(AP$3:AP73,AP73))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR73" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="35">
         <f>SAP!A74</f>
         <v>0</v>
@@ -20743,7 +23790,7 @@
         <v>0</v>
       </c>
       <c r="AG74" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH74" s="19" t="str">
@@ -20754,20 +23801,38 @@
         <f ca="1">IF(AF74=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ74" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK74" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL74" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="20"/>
+      <c r="AL74" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM74" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN74" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO74" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP74" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74" s="70" t="str">
+        <f>IF(AP74=0,"",AP74+(1-COUNTIF(AP$3:AP74,AP74))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR74" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <f>SAP!A75</f>
         <v>0</v>
@@ -20897,7 +23962,7 @@
         <v>0</v>
       </c>
       <c r="AG75" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH75" s="19" t="str">
@@ -20908,20 +23973,38 @@
         <f ca="1">IF(AF75=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ75" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK75" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL75" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="20"/>
+      <c r="AL75" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM75" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN75" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO75" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP75" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="70" t="str">
+        <f>IF(AP75=0,"",AP75+(1-COUNTIF(AP$3:AP75,AP75))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR75" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="35">
         <f>SAP!A76</f>
         <v>0</v>
@@ -21051,7 +24134,7 @@
         <v>0</v>
       </c>
       <c r="AG76" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH76" s="19" t="str">
@@ -21062,20 +24145,38 @@
         <f ca="1">IF(AF76=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ76" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK76" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL76" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="20"/>
+      <c r="AL76" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM76" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN76" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO76" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP76" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="70" t="str">
+        <f>IF(AP76=0,"",AP76+(1-COUNTIF(AP$3:AP76,AP76))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR76" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="35">
         <f>SAP!A77</f>
         <v>0</v>
@@ -21205,7 +24306,7 @@
         <v>0</v>
       </c>
       <c r="AG77" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH77" s="19" t="str">
@@ -21216,20 +24317,38 @@
         <f ca="1">IF(AF77=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ77" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK77" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL77" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="20"/>
+      <c r="AK77" s="20"/>
+      <c r="AL77" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM77" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN77" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO77" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP77" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="70" t="str">
+        <f>IF(AP77=0,"",AP77+(1-COUNTIF(AP$3:AP77,AP77))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR77" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="35">
         <f>SAP!A78</f>
         <v>0</v>
@@ -21359,7 +24478,7 @@
         <v>0</v>
       </c>
       <c r="AG78" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH78" s="19" t="str">
@@ -21370,20 +24489,38 @@
         <f ca="1">IF(AF78=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ78" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK78" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL78" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="20"/>
+      <c r="AL78" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM78" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN78" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO78" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP78" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="70" t="str">
+        <f>IF(AP78=0,"",AP78+(1-COUNTIF(AP$3:AP78,AP78))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR78" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="35">
         <f>SAP!A79</f>
         <v>0</v>
@@ -21513,7 +24650,7 @@
         <v>0</v>
       </c>
       <c r="AG79" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH79" s="19" t="str">
@@ -21524,20 +24661,38 @@
         <f ca="1">IF(AF79=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ79" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK79" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL79" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="20"/>
+      <c r="AL79" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM79" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN79" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO79" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP79" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ79" s="70" t="str">
+        <f>IF(AP79=0,"",AP79+(1-COUNTIF(AP$3:AP79,AP79))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR79" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="35">
         <f>SAP!A80</f>
         <v>0</v>
@@ -21667,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="AG80" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH80" s="19" t="str">
@@ -21678,20 +24833,38 @@
         <f ca="1">IF(AF80=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ80" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK80" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL80" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="20"/>
+      <c r="AL80" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM80" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN80" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO80" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP80" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ80" s="70" t="str">
+        <f>IF(AP80=0,"",AP80+(1-COUNTIF(AP$3:AP80,AP80))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR80" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="35">
         <f>SAP!A81</f>
         <v>0</v>
@@ -21821,7 +24994,7 @@
         <v>0</v>
       </c>
       <c r="AG81" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH81" s="19" t="str">
@@ -21832,20 +25005,38 @@
         <f ca="1">IF(AF81=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ81" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK81" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL81" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="20"/>
+      <c r="AL81" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM81" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN81" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO81" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP81" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="70" t="str">
+        <f>IF(AP81=0,"",AP81+(1-COUNTIF(AP$3:AP81,AP81))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR81" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="35">
         <f>SAP!A82</f>
         <v>0</v>
@@ -21975,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="AG82" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH82" s="19" t="str">
@@ -21986,20 +25177,38 @@
         <f ca="1">IF(AF82=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ82" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK82" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL82" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="20"/>
+      <c r="AL82" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM82" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN82" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO82" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP82" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ82" s="70" t="str">
+        <f>IF(AP82=0,"",AP82+(1-COUNTIF(AP$3:AP82,AP82))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR82" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <f>SAP!A83</f>
         <v>0</v>
@@ -22129,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="AG83" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH83" s="19" t="str">
@@ -22140,20 +25349,38 @@
         <f ca="1">IF(AF83=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ83" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK83" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL83" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="20"/>
+      <c r="AL83" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM83" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN83" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO83" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP83" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ83" s="70" t="str">
+        <f>IF(AP83=0,"",AP83+(1-COUNTIF(AP$3:AP83,AP83))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR83" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="35">
         <f>SAP!A84</f>
         <v>0</v>
@@ -22283,7 +25510,7 @@
         <v>0</v>
       </c>
       <c r="AG84" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH84" s="19" t="str">
@@ -22294,20 +25521,38 @@
         <f ca="1">IF(AF84=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ84" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK84" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL84" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM84" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN84" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO84" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP84" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ84" s="70" t="str">
+        <f>IF(AP84=0,"",AP84+(1-COUNTIF(AP$3:AP84,AP84))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR84" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="35">
         <f>SAP!A85</f>
         <v>0</v>
@@ -22437,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="AG85" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH85" s="19" t="str">
@@ -22448,20 +25693,38 @@
         <f ca="1">IF(AF85=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ85" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK85" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL85" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="20"/>
+      <c r="AL85" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM85" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN85" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO85" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP85" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="70" t="str">
+        <f>IF(AP85=0,"",AP85+(1-COUNTIF(AP$3:AP85,AP85))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR85" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="35">
         <f>SAP!A86</f>
         <v>0</v>
@@ -22591,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="AG86" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH86" s="19" t="str">
@@ -22602,20 +25865,38 @@
         <f ca="1">IF(AF86=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ86" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK86" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL86" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="20"/>
+      <c r="AL86" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM86" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN86" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO86" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP86" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="70" t="str">
+        <f>IF(AP86=0,"",AP86+(1-COUNTIF(AP$3:AP86,AP86))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR86" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="35">
         <f>SAP!A87</f>
         <v>0</v>
@@ -22745,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="AG87" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH87" s="19" t="str">
@@ -22756,20 +26037,38 @@
         <f ca="1">IF(AF87=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ87" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK87" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL87" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="20"/>
+      <c r="AL87" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM87" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN87" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO87" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP87" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="70" t="str">
+        <f>IF(AP87=0,"",AP87+(1-COUNTIF(AP$3:AP87,AP87))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR87" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="35">
         <f>SAP!A88</f>
         <v>0</v>
@@ -22899,7 +26198,7 @@
         <v>0</v>
       </c>
       <c r="AG88" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH88" s="19" t="str">
@@ -22910,20 +26209,38 @@
         <f ca="1">IF(AF88=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ88" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK88" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL88" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="20"/>
+      <c r="AK88" s="20"/>
+      <c r="AL88" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM88" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN88" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO88" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP88" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="70" t="str">
+        <f>IF(AP88=0,"",AP88+(1-COUNTIF(AP$3:AP88,AP88))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR88" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <f>SAP!A89</f>
         <v>0</v>
@@ -23053,7 +26370,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH89" s="19" t="str">
@@ -23064,20 +26381,38 @@
         <f ca="1">IF(AF89=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ89" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK89" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL89" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="20"/>
+      <c r="AL89" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM89" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN89" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO89" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP89" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="70" t="str">
+        <f>IF(AP89=0,"",AP89+(1-COUNTIF(AP$3:AP89,AP89))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR89" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
         <f>SAP!A90</f>
         <v>0</v>
@@ -23207,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="AG90" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH90" s="19" t="str">
@@ -23218,20 +26553,38 @@
         <f ca="1">IF(AF90=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ90" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK90" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL90" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="20"/>
+      <c r="AL90" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM90" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN90" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO90" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP90" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="70" t="str">
+        <f>IF(AP90=0,"",AP90+(1-COUNTIF(AP$3:AP90,AP90))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR90" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <f>SAP!A91</f>
         <v>0</v>
@@ -23361,7 +26714,7 @@
         <v>0</v>
       </c>
       <c r="AG91" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH91" s="19" t="str">
@@ -23372,20 +26725,38 @@
         <f ca="1">IF(AF91=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ91" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK91" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL91" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="20"/>
+      <c r="AL91" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM91" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN91" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO91" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP91" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="70" t="str">
+        <f>IF(AP91=0,"",AP91+(1-COUNTIF(AP$3:AP91,AP91))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR91" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="35">
         <f>SAP!A92</f>
         <v>0</v>
@@ -23515,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="AG92" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH92" s="19" t="str">
@@ -23526,20 +26897,38 @@
         <f ca="1">IF(AF92=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ92" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK92" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL92" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM92" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN92" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO92" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP92" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="70" t="str">
+        <f>IF(AP92=0,"",AP92+(1-COUNTIF(AP$3:AP92,AP92))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR92" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="35">
         <f>SAP!A93</f>
         <v>0</v>
@@ -23669,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="AG93" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH93" s="19" t="str">
@@ -23680,20 +27069,38 @@
         <f ca="1">IF(AF93=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ93" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK93" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL93" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="20"/>
+      <c r="AL93" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM93" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN93" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO93" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP93" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="70" t="str">
+        <f>IF(AP93=0,"",AP93+(1-COUNTIF(AP$3:AP93,AP93))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR93" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="35">
         <f>SAP!A94</f>
         <v>0</v>
@@ -23823,7 +27230,7 @@
         <v>0</v>
       </c>
       <c r="AG94" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH94" s="19" t="str">
@@ -23834,20 +27241,38 @@
         <f ca="1">IF(AF94=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ94" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK94" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL94" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="20"/>
+      <c r="AK94" s="20"/>
+      <c r="AL94" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM94" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN94" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO94" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP94" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="70" t="str">
+        <f>IF(AP94=0,"",AP94+(1-COUNTIF(AP$3:AP94,AP94))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR94" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="35">
         <f>SAP!A95</f>
         <v>0</v>
@@ -23977,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="AG95" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH95" s="19" t="str">
@@ -23988,20 +27413,38 @@
         <f ca="1">IF(AF95=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ95" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK95" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL95" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="20"/>
+      <c r="AK95" s="20"/>
+      <c r="AL95" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM95" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN95" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO95" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP95" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="70" t="str">
+        <f>IF(AP95=0,"",AP95+(1-COUNTIF(AP$3:AP95,AP95))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR95" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="35">
         <f>SAP!A96</f>
         <v>0</v>
@@ -24131,7 +27574,7 @@
         <v>0</v>
       </c>
       <c r="AG96" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH96" s="19" t="str">
@@ -24142,20 +27585,38 @@
         <f ca="1">IF(AF96=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ96" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK96" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL96" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="20"/>
+      <c r="AK96" s="20"/>
+      <c r="AL96" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM96" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN96" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO96" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP96" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="70" t="str">
+        <f>IF(AP96=0,"",AP96+(1-COUNTIF(AP$3:AP96,AP96))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR96" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A97" s="35">
         <f>SAP!A97</f>
         <v>0</v>
@@ -24285,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="AG97" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH97" s="19" t="str">
@@ -24296,20 +27757,38 @@
         <f ca="1">IF(AF97=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ97" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK97" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL97" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="20"/>
+      <c r="AK97" s="20"/>
+      <c r="AL97" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM97" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN97" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO97" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP97" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="70" t="str">
+        <f>IF(AP97=0,"",AP97+(1-COUNTIF(AP$3:AP97,AP97))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR97" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
         <f>SAP!A98</f>
         <v>0</v>
@@ -24439,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="AG98" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH98" s="19" t="str">
@@ -24450,20 +27929,38 @@
         <f ca="1">IF(AF98=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ98" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK98" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL98" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="20"/>
+      <c r="AK98" s="20"/>
+      <c r="AL98" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM98" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN98" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO98" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP98" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="70" t="str">
+        <f>IF(AP98=0,"",AP98+(1-COUNTIF(AP$3:AP98,AP98))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR98" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A99" s="35">
         <f>SAP!A99</f>
         <v>0</v>
@@ -24593,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="AG99" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH99" s="19" t="str">
@@ -24604,20 +28101,38 @@
         <f ca="1">IF(AF99=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ99" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK99" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL99" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="20"/>
+      <c r="AK99" s="20"/>
+      <c r="AL99" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM99" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN99" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO99" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP99" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="70" t="str">
+        <f>IF(AP99=0,"",AP99+(1-COUNTIF(AP$3:AP99,AP99))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR99" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A100" s="35">
         <f>SAP!A100</f>
         <v>0</v>
@@ -24747,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="AG100" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH100" s="19" t="str">
@@ -24758,20 +28273,38 @@
         <f ca="1">IF(AF100=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ100" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK100" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL100" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="20"/>
+      <c r="AK100" s="20"/>
+      <c r="AL100" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM100" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN100" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO100" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP100" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="70" t="str">
+        <f>IF(AP100=0,"",AP100+(1-COUNTIF(AP$3:AP100,AP100))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR100" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A101" s="35">
         <f>SAP!A101</f>
         <v>0</v>
@@ -24901,7 +28434,7 @@
         <v>0</v>
       </c>
       <c r="AG101" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH101" s="19" t="str">
@@ -24912,20 +28445,38 @@
         <f ca="1">IF(AF101=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ101" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK101" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL101" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="20"/>
+      <c r="AL101" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM101" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN101" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO101" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP101" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="70" t="str">
+        <f>IF(AP101=0,"",AP101+(1-COUNTIF(AP$3:AP101,AP101))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR101" s="69" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A102" s="35">
         <f>SAP!A102</f>
         <v>0</v>
@@ -25055,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="AG102" s="19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AH102" s="19" t="str">
@@ -25066,30 +28617,50 @@
         <f ca="1">IF(AF102=0,"",Plan!$D$31)</f>
         <v/>
       </c>
-      <c r="AJ102" s="19">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK102" s="19" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="AL102" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="AJ102" s="20"/>
+      <c r="AK102" s="20"/>
+      <c r="AL102" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AM102" s="19" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v/>
+      </c>
+      <c r="AN102" s="19" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="AO102" s="63" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AP102" s="70">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AQ102" s="70" t="str">
+        <f>IF(AP102=0,"",AP102+(1-COUNTIF(AP$3:AP102,AP102))/1000)</f>
+        <v/>
+      </c>
+      <c r="AR102" s="69" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25568,7 +29139,73 @@
       <c r="C32" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EV Sample.xlsx
+++ b/EV Sample.xlsx
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="Lookup_Counselling">Reference!$A$3:$B$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">EV!$A$1:$AR$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>Element</t>
   </si>
@@ -490,6 +491,10 @@
     <t>Cummu-
 lative</t>
   </si>
+  <si>
+    <t>This Excel workbook accompanies a post to LinkedIn…
+https://www.linkedin.com/pulse/use-earned-value-real-projects-greg-b-watson</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +522,14 @@
     <font>
       <sz val="11"/>
       <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -855,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,6 +1156,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1429,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,80 +1461,86 @@
     <col min="6" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C1" s="108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
         <v>109</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="90"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
-        <v>111</v>
       </c>
       <c r="B3" s="89"/>
       <c r="C3" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="90"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="92"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="D5" s="92"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C7" s="58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="C7" s="58" t="s">
+    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="C9" s="58" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="78" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:6" ht="78" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="93" t="s">
+      <c r="D12" s="94"/>
+      <c r="E12" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F12" s="95" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1578,7 +1600,7 @@
       </c>
       <c r="B2" s="74">
         <f ca="1">SUM(EV!AF:AF)</f>
-        <v>195</v>
+        <v>209.9</v>
       </c>
       <c r="C2" s="76">
         <f ca="1">SUM(EV!AG:AG)</f>
@@ -1594,7 +1616,7 @@
       </c>
       <c r="F2" s="76">
         <f ca="1">SUM(EV!AJ:AJ)</f>
-        <v>-56.25</v>
+        <v>-71.150000000000006</v>
       </c>
       <c r="G2" s="76">
         <f ca="1">SUM(EV!AK:AK)</f>
@@ -1602,7 +1624,7 @@
       </c>
       <c r="H2" s="76">
         <f ca="1">C2/B2</f>
-        <v>0.71153846153846156</v>
+        <v>0.66102906145783702</v>
       </c>
       <c r="I2" s="76">
         <f ca="1">C2/D2</f>
@@ -1610,7 +1632,7 @@
       </c>
       <c r="J2" s="75">
         <f ca="1">(E2-C2)/(E2-B2)</f>
-        <v>1.0635593220338984</v>
+        <v>1.0817722100907941</v>
       </c>
       <c r="K2" s="72" t="s">
         <v>138</v>
@@ -1641,7 +1663,7 @@
       </c>
       <c r="B5" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Kathy</v>
+        <v>Fred</v>
       </c>
       <c r="C5" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1662,7 +1684,7 @@
       </c>
       <c r="B6" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Mona</v>
+        <v>Kathy</v>
       </c>
       <c r="C6" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1683,7 +1705,7 @@
       </c>
       <c r="B7" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Fred</v>
+        <v>Mona</v>
       </c>
       <c r="C7" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1977,7 +1999,7 @@
       </c>
       <c r="B21" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Zoe</v>
+        <v>Sue</v>
       </c>
       <c r="C21" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1998,7 +2020,7 @@
       </c>
       <c r="B22" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Sue</v>
+        <v>Zoe</v>
       </c>
       <c r="C22" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -3752,7 +3774,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,23 +3903,23 @@
       </c>
       <c r="B2" s="36">
         <f>SUM(C2:AK2)</f>
-        <v>195</v>
+        <v>209.89999999999998</v>
       </c>
       <c r="C2" s="39">
         <f>SUM(C3:C102)</f>
-        <v>47</v>
+        <v>54.8</v>
       </c>
       <c r="D2" s="39">
         <f t="shared" ref="D2:AK2" si="0">SUM(D3:D102)</f>
-        <v>52</v>
+        <v>56.8</v>
       </c>
       <c r="E2" s="39">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>61.8</v>
       </c>
       <c r="F2" s="39">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>36.5</v>
       </c>
       <c r="G2" s="39">
         <f t="shared" si="0"/>
@@ -4030,16 +4052,16 @@
       </c>
       <c r="B3" s="55">
         <f>SUM(C3:AK3)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" s="47">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="47">
         <v>6</v>
@@ -4082,19 +4104,19 @@
       </c>
       <c r="B4" s="56">
         <f t="shared" ref="B4:B67" si="1">SUM(C4:AK4)</f>
-        <v>7</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="C4" s="46">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="D4" s="47">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="E4" s="47">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="F4" s="47">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
@@ -4134,16 +4156,16 @@
       </c>
       <c r="B5" s="56">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="47">
         <v>4</v>
       </c>
       <c r="E5" s="47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" s="47">
         <v>3</v>
@@ -12072,13 +12094,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AR102"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN3" sqref="AN3"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12445,7 +12470,7 @@
       </c>
       <c r="AF3" s="16">
         <f ca="1">IFERROR(OFFSET(SAP!$B$1,MATCH(EV!$A3,SAP!$A:$A,0)-1,0),0)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG3" s="17">
         <f ca="1">SUM(B3:AE3)</f>
@@ -12461,7 +12486,7 @@
       </c>
       <c r="AJ3" s="18">
         <f ca="1">AG3-AF3</f>
-        <v>-7.5</v>
+        <v>-13.5</v>
       </c>
       <c r="AK3" s="18">
         <f ca="1">AG3-AH3</f>
@@ -12469,7 +12494,7 @@
       </c>
       <c r="AL3" s="17">
         <f ca="1">IFERROR(AG3/AF3,0)</f>
-        <v>0.5</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="AM3" s="17">
         <f ca="1">IF(AF3=0,"",AG3/AH3)</f>
@@ -12477,7 +12502,7 @@
       </c>
       <c r="AN3" s="17">
         <f ca="1">IF(AF3=0,"",IFERROR((AI3-AG3)/(AI3-AF3),0))</f>
-        <v>1.1666666666666667</v>
+        <v>1.3461538461538463</v>
       </c>
       <c r="AO3" s="61" t="str">
         <f t="shared" ref="AO3:AO34" ca="1" si="0">IF(A3=0,"",IFERROR(VLOOKUP(IF(AND(AL3&lt;0.8,AM3&lt;0.8),"know",IF(AL3&lt;0.8,"cost",IF(AM3&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
@@ -12485,15 +12510,15 @@
       </c>
       <c r="AP3" s="68">
         <f ca="1">AJ3+AK3</f>
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="AQ3" s="68">
         <f ca="1">IF(AP3=0,"",AP3+(1-COUNTIF(AP$3:AP3,AP3))/1000)</f>
-        <v>-15</v>
+        <v>-21</v>
       </c>
       <c r="AR3" s="67">
         <f ca="1">IF(AP3=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ3))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -12623,7 +12648,7 @@
       </c>
       <c r="AF4" s="16">
         <f ca="1">IFERROR(OFFSET(SAP!$B$1,MATCH(EV!$A4,SAP!$A:$A,0)-1,0),0)</f>
-        <v>7</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="AG4" s="17">
         <f t="shared" ref="AG4:AG67" ca="1" si="1">SUM(B4:AE4)</f>
@@ -12639,7 +12664,7 @@
       </c>
       <c r="AJ4" s="18">
         <f t="shared" ref="AJ4:AJ20" ca="1" si="2">AG4-AF4</f>
-        <v>8</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="AK4" s="18">
         <f t="shared" ref="AK4:AK20" ca="1" si="3">AG4-AH4</f>
@@ -12647,7 +12672,7 @@
       </c>
       <c r="AL4" s="17">
         <f t="shared" ref="AL4:AL67" ca="1" si="4">IFERROR(AG4/AF4,0)</f>
-        <v>2.1428571428571428</v>
+        <v>1.0067114093959733</v>
       </c>
       <c r="AM4" s="17">
         <f t="shared" ref="AM4:AM67" ca="1" si="5">IF(AF4=0,"",AG4/AH4)</f>
@@ -12655,7 +12680,7 @@
       </c>
       <c r="AN4" s="17">
         <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",IFERROR((AI4-AG4)/(AI4-AF4),0))</f>
-        <v>0.84905660377358494</v>
+        <v>0.99778270509977829</v>
       </c>
       <c r="AO4" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12663,15 +12688,15 @@
       </c>
       <c r="AP4" s="68">
         <f t="shared" ref="AP4:AP67" ca="1" si="7">AJ4+AK4</f>
-        <v>8</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="AQ4" s="68">
         <f ca="1">IF(AP4=0,"",AP4+(1-COUNTIF(AP$3:AP4,AP4))/1000)</f>
-        <v>8</v>
+        <v>0.10000000000000142</v>
       </c>
       <c r="AR4" s="67">
         <f t="shared" ref="AR4:AR67" ca="1" si="8">IF(AP4=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ4))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -12801,7 +12826,7 @@
       </c>
       <c r="AF5" s="16">
         <f ca="1">IFERROR(OFFSET(SAP!$B$1,MATCH(EV!$A5,SAP!$A:$A,0)-1,0),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" ca="1" si="1"/>
@@ -12817,7 +12842,7 @@
       </c>
       <c r="AJ5" s="18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="18">
         <f t="shared" ca="1" si="3"/>
@@ -12825,7 +12850,7 @@
       </c>
       <c r="AL5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="AM5" s="17">
         <f t="shared" ca="1" si="5"/>
@@ -12833,7 +12858,7 @@
       </c>
       <c r="AN5" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9375</v>
+        <v>0.95744680851063835</v>
       </c>
       <c r="AO5" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -12841,15 +12866,15 @@
       </c>
       <c r="AP5" s="68">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5" s="68">
         <f ca="1">IF(AP5=0,"",AP5+(1-COUNTIF(AP$3:AP5,AP5))/1000)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR5" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -14629,7 +14654,7 @@
       </c>
       <c r="AR15" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -14807,7 +14832,7 @@
       </c>
       <c r="AR16" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
@@ -29627,9 +29652,14 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;F
+&amp;A</oddHeader>
+    <oddFooter>&amp;LPrinted &amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 

--- a/EV Sample.xlsx
+++ b/EV Sample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Documents\GitHub\CrunchThePeople1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg.B.Watson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="Lookup_Counselling">Reference!$A$3:$B$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">EV!$A$1:$AR$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">EV!$A$1:$AS$20</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="146">
   <si>
     <t>Element</t>
   </si>
@@ -438,15 +438,41 @@
     <t>SV</t>
   </si>
   <si>
-    <t>RAW Priority 
-= CV+SV</t>
-  </si>
-  <si>
     <t>A prioritized list of the people to call with a note of what to call about.
 Concept: With simple rules, you can create a list of people to call sequenced by the magnitude of their issues with a brief note what to call about. Such follow-up may nudge change to happen... or... if the nudge doesn't work, you should give warning that the change is not going to happen sooner than you could spot the problem without EV.</t>
   </si>
   <si>
     <t>What to talk about…</t>
+  </si>
+  <si>
+    <t>&lt;== Project Level (calculated from the 'EV' tab)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Data Entry Tabs</t>
+  </si>
+  <si>
+    <t>Action Items arising from EVM</t>
+  </si>
+  <si>
+    <t>Cummu-
+lative</t>
+  </si>
+  <si>
+    <t>This Excel workbook accompanies a post to LinkedIn…
+https://www.linkedin.com/pulse/use-earned-value-real-projects-greg-b-watson</t>
+  </si>
+  <si>
+    <t>RAW Priority 
+= VAC</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>VAC</t>
   </si>
   <si>
     <r>
@@ -470,30 +496,10 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> The tab "CallList" lists the rows from the EV tab in order of their priority as determined by the calculations on the EV tab.
-Note that Schedule Variance (SV) and Cost Variance (CV) have the same units. If you add them together, you have an idea of how big a problem that row relative to other rows measured in the same units. 
-Raw Priority = SV + CV 
-A challenge with "raw priority" is that some rows may have the same sum of SV+CV. For each row that has the same SV+CV, we add a small amount so that they are listed in sequence.</t>
+Recall that the formula we apply for "estimate at completion" (EAC) assumes that each student will continue to study with the same efficiency until they complete. Thus the EAC = AC + (BAC - EV) / (CPI * SPI),  the inclusion of SPI in the denominator that the schedule will extend in time until the course is complete
+Raw Priority = VAC = BAC - EAC 
+A challenge with "raw priority" is that some rows may have the same VAC. For each row that has the same VAC, we add a small amount so that they are listed in sequence.</t>
     </r>
-  </si>
-  <si>
-    <t>&lt;== Project Level (calculated from the 'EV' tab)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Data Entry Tabs</t>
-  </si>
-  <si>
-    <t>Action Items arising from EVM</t>
-  </si>
-  <si>
-    <t>Cummu-
-lative</t>
-  </si>
-  <si>
-    <t>This Excel workbook accompanies a post to LinkedIn…
-https://www.linkedin.com/pulse/use-earned-value-real-projects-greg-b-watson</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1454,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1469,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C1" s="108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1483,10 +1489,10 @@
       <c r="C4" s="89"/>
       <c r="D4" s="91"/>
       <c r="E4" s="84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1508,9 +1514,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="C9" s="58" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,14 +1534,14 @@
       </c>
       <c r="B12" s="87"/>
       <c r="C12" s="87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="95" t="s">
         <v>139</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1550,11 +1556,11 @@
   <sheetPr>
     <tabColor rgb="FFDAA600"/>
   </sheetPr>
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1570,7 @@
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="71"/>
       <c r="B1" s="73" t="s">
         <v>17</v>
@@ -1591,10 +1597,16 @@
         <v>22</v>
       </c>
       <c r="J1" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -1631,15 +1643,23 @@
         <v>0.51388888888888884</v>
       </c>
       <c r="J2" s="75">
+        <f ca="1">B2+(E2-C2)/(H2)</f>
+        <v>1633.8162162162164</v>
+      </c>
+      <c r="K2" s="75">
+        <f ca="1">E2-J2</f>
+        <v>-553.81621621621639</v>
+      </c>
+      <c r="L2" s="75">
         <f ca="1">(E2-C2)/(E2-B2)</f>
         <v>1.0817722100907941</v>
       </c>
-      <c r="K2" s="72" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>127</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
@@ -1656,17 +1676,19 @@
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
       <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="81">
         <v>1</v>
       </c>
       <c r="B5" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A5,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Fred</v>
       </c>
       <c r="C5" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A5,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A5,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D5" s="77"/>
@@ -1676,18 +1698,20 @@
       <c r="H5" s="77"/>
       <c r="I5" s="77"/>
       <c r="J5" s="77"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="81">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A6,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Kathy</v>
       </c>
       <c r="C6" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A6,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A6,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D6" s="77"/>
@@ -1697,18 +1721,20 @@
       <c r="H6" s="77"/>
       <c r="I6" s="77"/>
       <c r="J6" s="77"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="81">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A7,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Mona</v>
       </c>
       <c r="C7" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A7,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A7,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D7" s="77"/>
@@ -1718,18 +1744,20 @@
       <c r="H7" s="77"/>
       <c r="I7" s="77"/>
       <c r="J7" s="77"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="81">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A8,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Ted</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A8,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Judy</v>
       </c>
       <c r="C8" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A8,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A8,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D8" s="77"/>
@@ -1739,18 +1767,20 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="81">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A9,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Judy</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A9,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Lynda</v>
       </c>
       <c r="C9" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A9,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A9,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D9" s="77"/>
@@ -1760,18 +1790,20 @@
       <c r="H9" s="77"/>
       <c r="I9" s="77"/>
       <c r="J9" s="77"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="81">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A10,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Lynda</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A10,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Ted</v>
       </c>
       <c r="C10" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A10,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A10,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D10" s="77"/>
@@ -1781,18 +1813,20 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="81">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A11,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Mike</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A11,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Henry</v>
       </c>
       <c r="C11" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A11,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A11,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D11" s="77"/>
@@ -1802,18 +1836,20 @@
       <c r="H11" s="77"/>
       <c r="I11" s="77"/>
       <c r="J11" s="77"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="81">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A12,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Stu</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A12,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Tom</v>
       </c>
       <c r="C12" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A12,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A12,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D12" s="77"/>
@@ -1823,18 +1859,20 @@
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="81">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A13,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Henry</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A13,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Mike</v>
       </c>
       <c r="C13" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A13,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A13,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D13" s="77"/>
@@ -1844,18 +1882,20 @@
       <c r="H13" s="77"/>
       <c r="I13" s="77"/>
       <c r="J13" s="77"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="81">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A14,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Tom</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A14,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Dick</v>
       </c>
       <c r="C14" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A14,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A14,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D14" s="77"/>
@@ -1865,18 +1905,20 @@
       <c r="H14" s="77"/>
       <c r="I14" s="77"/>
       <c r="J14" s="77"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="81">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A15,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Dick</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A15,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Stu</v>
       </c>
       <c r="C15" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A15,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A15,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>May be having difficulty with the material</v>
       </c>
       <c r="D15" s="77"/>
@@ -1886,19 +1928,21 @@
       <c r="H15" s="77"/>
       <c r="I15" s="77"/>
       <c r="J15" s="77"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="81">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A16,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Nancy</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A16,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Harry</v>
       </c>
       <c r="C16" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A16,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Not completing milestones in the week due</v>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A16,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Charging time to the wrong SAP code</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
@@ -1907,18 +1951,20 @@
       <c r="H16" s="77"/>
       <c r="I16" s="77"/>
       <c r="J16" s="77"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="81">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A17,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Bill</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A17,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Frank</v>
       </c>
       <c r="C17" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A17,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A17,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Not completing milestones in the week due</v>
       </c>
       <c r="D17" s="77"/>
@@ -1928,18 +1974,20 @@
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="77"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="81">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A18,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Kurt</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A18,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Bill</v>
       </c>
       <c r="C18" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A18,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A18,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Not completing milestones in the week due</v>
       </c>
       <c r="D18" s="77"/>
@@ -1949,19 +1997,21 @@
       <c r="H18" s="77"/>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="81">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A19,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Harry</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A19,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Kurt</v>
       </c>
       <c r="C19" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A19,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Charging time to the wrong SAP code</v>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A19,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Not completing milestones in the week due</v>
       </c>
       <c r="D19" s="77"/>
       <c r="E19" s="77"/>
@@ -1970,18 +2020,20 @@
       <c r="H19" s="77"/>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="81">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A20,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Frank</v>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A20,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <v>Nancy</v>
       </c>
       <c r="C20" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A20,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A20,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Not completing milestones in the week due</v>
       </c>
       <c r="D20" s="77"/>
@@ -1991,18 +2043,20 @@
       <c r="H20" s="77"/>
       <c r="I20" s="77"/>
       <c r="J20" s="77"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="81">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A21,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Sue</v>
       </c>
       <c r="C21" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A21,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A21,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Doing well, may be able to coach others</v>
       </c>
       <c r="D21" s="77"/>
@@ -2012,18 +2066,20 @@
       <c r="H21" s="77"/>
       <c r="I21" s="77"/>
       <c r="J21" s="77"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="81">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A22,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Zoe</v>
       </c>
       <c r="C22" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A22,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A22,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v>Doing well, may be able to coach others</v>
       </c>
       <c r="D22" s="77"/>
@@ -2033,18 +2089,20 @@
       <c r="H22" s="77"/>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="81">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A23,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A23,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C23" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A23,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A23,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D23" s="77"/>
@@ -2054,18 +2112,20 @@
       <c r="H23" s="77"/>
       <c r="I23" s="77"/>
       <c r="J23" s="77"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="81">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A24,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A24,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C24" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A24,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A24,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D24" s="77"/>
@@ -2075,18 +2135,20 @@
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
       <c r="J24" s="77"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="81">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A25,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A25,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C25" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A25,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A25,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D25" s="77"/>
@@ -2096,18 +2158,20 @@
       <c r="H25" s="77"/>
       <c r="I25" s="77"/>
       <c r="J25" s="77"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="81">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A26,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A26,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C26" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A26,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A26,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D26" s="77"/>
@@ -2117,18 +2181,20 @@
       <c r="H26" s="77"/>
       <c r="I26" s="77"/>
       <c r="J26" s="77"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="81">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A27,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A27,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C27" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A27,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A27,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D27" s="77"/>
@@ -2138,18 +2204,20 @@
       <c r="H27" s="77"/>
       <c r="I27" s="77"/>
       <c r="J27" s="77"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="81">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A28,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A28,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C28" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A28,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A28,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D28" s="77"/>
@@ -2159,18 +2227,20 @@
       <c r="H28" s="77"/>
       <c r="I28" s="77"/>
       <c r="J28" s="77"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="81">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A29,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A29,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C29" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A29,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A29,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D29" s="77"/>
@@ -2180,18 +2250,20 @@
       <c r="H29" s="77"/>
       <c r="I29" s="77"/>
       <c r="J29" s="77"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="81">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A30,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A30,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C30" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A30,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A30,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D30" s="77"/>
@@ -2201,18 +2273,20 @@
       <c r="H30" s="77"/>
       <c r="I30" s="77"/>
       <c r="J30" s="77"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="81">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B31" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A31,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A31,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C31" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A31,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A31,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D31" s="77"/>
@@ -2222,18 +2296,20 @@
       <c r="H31" s="77"/>
       <c r="I31" s="77"/>
       <c r="J31" s="77"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="81">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B32" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A32,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A32,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C32" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A32,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A32,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D32" s="77"/>
@@ -2243,18 +2319,20 @@
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
       <c r="J32" s="77"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="81">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A33,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A33,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C33" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A33,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A33,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D33" s="77"/>
@@ -2264,18 +2342,20 @@
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
       <c r="J33" s="77"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="81">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B34" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A34,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A34,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C34" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A34,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A34,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D34" s="77"/>
@@ -2285,18 +2365,20 @@
       <c r="H34" s="77"/>
       <c r="I34" s="77"/>
       <c r="J34" s="77"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="81">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B35" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A35,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A35,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C35" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A35,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A35,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D35" s="77"/>
@@ -2306,18 +2388,20 @@
       <c r="H35" s="77"/>
       <c r="I35" s="77"/>
       <c r="J35" s="77"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="81">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B36" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A36,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A36,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C36" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A36,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A36,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D36" s="77"/>
@@ -2327,18 +2411,20 @@
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
       <c r="J36" s="77"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="81">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B37" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A37,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A37,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C37" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A37,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A37,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D37" s="77"/>
@@ -2348,18 +2434,20 @@
       <c r="H37" s="77"/>
       <c r="I37" s="77"/>
       <c r="J37" s="77"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="81">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B38" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A38,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A38,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C38" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A38,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A38,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D38" s="77"/>
@@ -2369,18 +2457,20 @@
       <c r="H38" s="77"/>
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="81">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B39" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A39,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A39,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C39" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A39,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A39,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D39" s="77"/>
@@ -2390,18 +2480,20 @@
       <c r="H39" s="77"/>
       <c r="I39" s="77"/>
       <c r="J39" s="77"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="81">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B40" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A40,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A40,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C40" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A40,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A40,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D40" s="77"/>
@@ -2411,18 +2503,20 @@
       <c r="H40" s="77"/>
       <c r="I40" s="77"/>
       <c r="J40" s="77"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="81">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B41" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A41,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A41,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C41" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A41,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A41,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D41" s="77"/>
@@ -2432,18 +2526,20 @@
       <c r="H41" s="77"/>
       <c r="I41" s="77"/>
       <c r="J41" s="77"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="81">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B42" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A42,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A42,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C42" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A42,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A42,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D42" s="77"/>
@@ -2453,18 +2549,20 @@
       <c r="H42" s="77"/>
       <c r="I42" s="77"/>
       <c r="J42" s="77"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="81">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B43" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A43,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A43,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C43" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A43,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A43,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D43" s="77"/>
@@ -2474,18 +2572,20 @@
       <c r="H43" s="77"/>
       <c r="I43" s="77"/>
       <c r="J43" s="77"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="81">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B44" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A44,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A44,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C44" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A44,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A44,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D44" s="77"/>
@@ -2495,18 +2595,20 @@
       <c r="H44" s="77"/>
       <c r="I44" s="77"/>
       <c r="J44" s="77"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="81">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B45" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A45,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A45,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C45" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A45,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A45,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D45" s="77"/>
@@ -2516,18 +2618,20 @@
       <c r="H45" s="77"/>
       <c r="I45" s="77"/>
       <c r="J45" s="77"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="81">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A46,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A46,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C46" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A46,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A46,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D46" s="77"/>
@@ -2537,18 +2641,20 @@
       <c r="H46" s="77"/>
       <c r="I46" s="77"/>
       <c r="J46" s="77"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="81">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A47,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A47,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C47" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A47,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A47,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D47" s="77"/>
@@ -2558,18 +2664,20 @@
       <c r="H47" s="77"/>
       <c r="I47" s="77"/>
       <c r="J47" s="77"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="81">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B48" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A48,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A48,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C48" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A48,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A48,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D48" s="77"/>
@@ -2579,18 +2687,20 @@
       <c r="H48" s="77"/>
       <c r="I48" s="77"/>
       <c r="J48" s="77"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="81">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B49" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A49,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A49,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C49" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A49,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A49,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D49" s="77"/>
@@ -2600,18 +2710,20 @@
       <c r="H49" s="77"/>
       <c r="I49" s="77"/>
       <c r="J49" s="77"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="81">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B50" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A50,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A50,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C50" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A50,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A50,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D50" s="77"/>
@@ -2621,18 +2733,20 @@
       <c r="H50" s="77"/>
       <c r="I50" s="77"/>
       <c r="J50" s="77"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="81">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A51,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A51,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C51" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A51,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A51,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D51" s="77"/>
@@ -2642,18 +2756,20 @@
       <c r="H51" s="77"/>
       <c r="I51" s="77"/>
       <c r="J51" s="77"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="81">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B52" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A52,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A52,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C52" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A52,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A52,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D52" s="77"/>
@@ -2663,18 +2779,20 @@
       <c r="H52" s="77"/>
       <c r="I52" s="77"/>
       <c r="J52" s="77"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="81">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B53" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A53,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A53,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C53" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A53,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A53,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D53" s="77"/>
@@ -2684,18 +2802,20 @@
       <c r="H53" s="77"/>
       <c r="I53" s="77"/>
       <c r="J53" s="77"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="81">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B54" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A54,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A54,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C54" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A54,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A54,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D54" s="77"/>
@@ -2705,18 +2825,20 @@
       <c r="H54" s="77"/>
       <c r="I54" s="77"/>
       <c r="J54" s="77"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="81">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B55" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A55,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A55,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C55" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A55,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A55,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D55" s="77"/>
@@ -2726,18 +2848,20 @@
       <c r="H55" s="77"/>
       <c r="I55" s="77"/>
       <c r="J55" s="77"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="81">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B56" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A56,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A56,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C56" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A56,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A56,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D56" s="77"/>
@@ -2747,18 +2871,20 @@
       <c r="H56" s="77"/>
       <c r="I56" s="77"/>
       <c r="J56" s="77"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="81">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B57" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A57,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A57,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C57" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A57,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A57,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D57" s="77"/>
@@ -2768,18 +2894,20 @@
       <c r="H57" s="77"/>
       <c r="I57" s="77"/>
       <c r="J57" s="77"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="81">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B58" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A58,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A58,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C58" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A58,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A58,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D58" s="77"/>
@@ -2789,18 +2917,20 @@
       <c r="H58" s="77"/>
       <c r="I58" s="77"/>
       <c r="J58" s="77"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="81">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B59" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A59,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A59,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C59" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A59,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A59,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D59" s="77"/>
@@ -2810,18 +2940,20 @@
       <c r="H59" s="77"/>
       <c r="I59" s="77"/>
       <c r="J59" s="77"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="81">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B60" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A60,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A60,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C60" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A60,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A60,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D60" s="77"/>
@@ -2831,18 +2963,20 @@
       <c r="H60" s="77"/>
       <c r="I60" s="77"/>
       <c r="J60" s="77"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="81">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B61" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A61,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A61,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C61" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A61,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A61,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D61" s="77"/>
@@ -2852,18 +2986,20 @@
       <c r="H61" s="77"/>
       <c r="I61" s="77"/>
       <c r="J61" s="77"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="81">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B62" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A62,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A62,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C62" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A62,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A62,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D62" s="77"/>
@@ -2873,18 +3009,20 @@
       <c r="H62" s="77"/>
       <c r="I62" s="77"/>
       <c r="J62" s="77"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="81">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B63" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A63,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A63,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C63" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A63,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A63,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D63" s="77"/>
@@ -2894,18 +3032,20 @@
       <c r="H63" s="77"/>
       <c r="I63" s="77"/>
       <c r="J63" s="77"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="81">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B64" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A64,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A64,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C64" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A64,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A64,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D64" s="77"/>
@@ -2915,18 +3055,20 @@
       <c r="H64" s="77"/>
       <c r="I64" s="77"/>
       <c r="J64" s="77"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="81">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B65" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A65,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A65,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C65" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A65,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A65,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D65" s="77"/>
@@ -2936,18 +3078,20 @@
       <c r="H65" s="77"/>
       <c r="I65" s="77"/>
       <c r="J65" s="77"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="81">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B66" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A66,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A66,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C66" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A66,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A66,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D66" s="77"/>
@@ -2957,18 +3101,20 @@
       <c r="H66" s="77"/>
       <c r="I66" s="77"/>
       <c r="J66" s="77"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="81">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B67" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A67,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A67,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C67" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A67,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A67,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D67" s="77"/>
@@ -2978,18 +3124,20 @@
       <c r="H67" s="77"/>
       <c r="I67" s="77"/>
       <c r="J67" s="77"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="81">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B68" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A68,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A68,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C68" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A68,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A68,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D68" s="77"/>
@@ -2999,18 +3147,20 @@
       <c r="H68" s="77"/>
       <c r="I68" s="77"/>
       <c r="J68" s="77"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="81">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B69" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A69,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A69,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C69" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A69,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A69,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D69" s="77"/>
@@ -3020,18 +3170,20 @@
       <c r="H69" s="77"/>
       <c r="I69" s="77"/>
       <c r="J69" s="77"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="81">
         <f t="shared" ref="A70:A104" si="1">A69+1</f>
         <v>66</v>
       </c>
       <c r="B70" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A70,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A70,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C70" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A70,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A70,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D70" s="77"/>
@@ -3041,18 +3193,20 @@
       <c r="H70" s="77"/>
       <c r="I70" s="77"/>
       <c r="J70" s="77"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="81">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B71" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A71,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A71,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C71" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A71,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A71,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D71" s="77"/>
@@ -3062,18 +3216,20 @@
       <c r="H71" s="77"/>
       <c r="I71" s="77"/>
       <c r="J71" s="77"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="81">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B72" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A72,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A72,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C72" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A72,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A72,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D72" s="77"/>
@@ -3083,18 +3239,20 @@
       <c r="H72" s="77"/>
       <c r="I72" s="77"/>
       <c r="J72" s="77"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="77"/>
+      <c r="L72" s="77"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="81">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B73" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A73,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A73,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C73" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A73,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A73,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D73" s="77"/>
@@ -3104,18 +3262,20 @@
       <c r="H73" s="77"/>
       <c r="I73" s="77"/>
       <c r="J73" s="77"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="81">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B74" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A74,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A74,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C74" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A74,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A74,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D74" s="77"/>
@@ -3125,18 +3285,20 @@
       <c r="H74" s="77"/>
       <c r="I74" s="77"/>
       <c r="J74" s="77"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="81">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B75" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A75,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A75,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C75" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A75,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A75,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D75" s="77"/>
@@ -3146,18 +3308,20 @@
       <c r="H75" s="77"/>
       <c r="I75" s="77"/>
       <c r="J75" s="77"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="81">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B76" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A76,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A76,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C76" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A76,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A76,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D76" s="77"/>
@@ -3167,18 +3331,20 @@
       <c r="H76" s="77"/>
       <c r="I76" s="77"/>
       <c r="J76" s="77"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="81">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B77" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A77,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A77,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C77" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A77,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A77,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D77" s="77"/>
@@ -3188,18 +3354,20 @@
       <c r="H77" s="77"/>
       <c r="I77" s="77"/>
       <c r="J77" s="77"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="81">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B78" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A78,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A78,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C78" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A78,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A78,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D78" s="77"/>
@@ -3209,18 +3377,20 @@
       <c r="H78" s="77"/>
       <c r="I78" s="77"/>
       <c r="J78" s="77"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="81">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B79" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A79,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A79,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C79" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A79,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A79,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D79" s="77"/>
@@ -3230,18 +3400,20 @@
       <c r="H79" s="77"/>
       <c r="I79" s="77"/>
       <c r="J79" s="77"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="81">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B80" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A80,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A80,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C80" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A80,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A80,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D80" s="77"/>
@@ -3251,18 +3423,20 @@
       <c r="H80" s="77"/>
       <c r="I80" s="77"/>
       <c r="J80" s="77"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="81">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B81" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A81,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A81,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C81" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A81,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A81,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D81" s="77"/>
@@ -3272,18 +3446,20 @@
       <c r="H81" s="77"/>
       <c r="I81" s="77"/>
       <c r="J81" s="77"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="81">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B82" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A82,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A82,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C82" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A82,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A82,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D82" s="77"/>
@@ -3293,18 +3469,20 @@
       <c r="H82" s="77"/>
       <c r="I82" s="77"/>
       <c r="J82" s="77"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="81">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B83" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A83,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A83,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C83" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A83,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A83,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D83" s="77"/>
@@ -3314,18 +3492,20 @@
       <c r="H83" s="77"/>
       <c r="I83" s="77"/>
       <c r="J83" s="77"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B84" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A84,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A84,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C84" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A84,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A84,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D84" s="77"/>
@@ -3335,18 +3515,20 @@
       <c r="H84" s="77"/>
       <c r="I84" s="77"/>
       <c r="J84" s="77"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="81">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B85" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A85,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A85,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C85" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A85,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A85,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D85" s="77"/>
@@ -3356,18 +3538,20 @@
       <c r="H85" s="77"/>
       <c r="I85" s="77"/>
       <c r="J85" s="77"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="81">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B86" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A86,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A86,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C86" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A86,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A86,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D86" s="77"/>
@@ -3377,18 +3561,20 @@
       <c r="H86" s="77"/>
       <c r="I86" s="77"/>
       <c r="J86" s="77"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="81">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B87" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A87,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A87,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C87" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A87,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A87,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D87" s="77"/>
@@ -3398,18 +3584,20 @@
       <c r="H87" s="77"/>
       <c r="I87" s="77"/>
       <c r="J87" s="77"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="81">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B88" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A88,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A88,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C88" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A88,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A88,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D88" s="77"/>
@@ -3419,18 +3607,20 @@
       <c r="H88" s="77"/>
       <c r="I88" s="77"/>
       <c r="J88" s="77"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="81">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B89" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A89,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A89,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C89" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A89,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A89,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D89" s="77"/>
@@ -3440,18 +3630,20 @@
       <c r="H89" s="77"/>
       <c r="I89" s="77"/>
       <c r="J89" s="77"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="81">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B90" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A90,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A90,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C90" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A90,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A90,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D90" s="77"/>
@@ -3461,18 +3653,20 @@
       <c r="H90" s="77"/>
       <c r="I90" s="77"/>
       <c r="J90" s="77"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="81">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B91" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A91,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A91,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C91" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A91,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A91,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D91" s="77"/>
@@ -3482,18 +3676,20 @@
       <c r="H91" s="77"/>
       <c r="I91" s="77"/>
       <c r="J91" s="77"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="81">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B92" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A92,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A92,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C92" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A92,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A92,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D92" s="77"/>
@@ -3503,18 +3699,20 @@
       <c r="H92" s="77"/>
       <c r="I92" s="77"/>
       <c r="J92" s="77"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="81">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B93" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A93,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A93,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C93" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A93,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A93,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D93" s="77"/>
@@ -3524,18 +3722,20 @@
       <c r="H93" s="77"/>
       <c r="I93" s="77"/>
       <c r="J93" s="77"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="81">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B94" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A94,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A94,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C94" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A94,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A94,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D94" s="77"/>
@@ -3545,18 +3745,20 @@
       <c r="H94" s="77"/>
       <c r="I94" s="77"/>
       <c r="J94" s="77"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="81">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B95" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A95,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A95,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C95" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A95,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A95,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D95" s="77"/>
@@ -3566,18 +3768,20 @@
       <c r="H95" s="77"/>
       <c r="I95" s="77"/>
       <c r="J95" s="77"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="81">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B96" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A96,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A96,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C96" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A96,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A96,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D96" s="77"/>
@@ -3587,18 +3791,20 @@
       <c r="H96" s="77"/>
       <c r="I96" s="77"/>
       <c r="J96" s="77"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="81">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B97" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A97,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A97,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C97" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A97,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A97,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D97" s="77"/>
@@ -3608,18 +3814,20 @@
       <c r="H97" s="77"/>
       <c r="I97" s="77"/>
       <c r="J97" s="77"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="77"/>
+      <c r="L97" s="77"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="81">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B98" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A98,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A98,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C98" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A98,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A98,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D98" s="77"/>
@@ -3629,18 +3837,20 @@
       <c r="H98" s="77"/>
       <c r="I98" s="77"/>
       <c r="J98" s="77"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="81">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B99" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A99,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A99,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C99" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A99,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A99,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D99" s="77"/>
@@ -3650,18 +3860,20 @@
       <c r="H99" s="77"/>
       <c r="I99" s="77"/>
       <c r="J99" s="77"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="81">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B100" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A100,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A100,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C100" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A100,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A100,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D100" s="77"/>
@@ -3671,18 +3883,20 @@
       <c r="H100" s="77"/>
       <c r="I100" s="77"/>
       <c r="J100" s="77"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="81">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B101" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A101,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A101,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C101" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A101,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A101,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D101" s="77"/>
@@ -3692,18 +3906,20 @@
       <c r="H101" s="77"/>
       <c r="I101" s="77"/>
       <c r="J101" s="77"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="81">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B102" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A102,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A102,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C102" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A102,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A102,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D102" s="77"/>
@@ -3713,18 +3929,20 @@
       <c r="H102" s="77"/>
       <c r="I102" s="77"/>
       <c r="J102" s="77"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="81">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B103" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A103,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A103,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C103" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A103,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A103,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D103" s="77"/>
@@ -3734,18 +3952,20 @@
       <c r="H103" s="77"/>
       <c r="I103" s="77"/>
       <c r="J103" s="77"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="81">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B104" s="82" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A104,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A104,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="C104" s="83" t="str">
-        <f ca="1">IFERROR(OFFSET(EV!$AO$2,MATCH(A104,EV!AR$3:OFFSET(EV!$AR$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
+        <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A104,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
         <v/>
       </c>
       <c r="D104" s="77"/>
@@ -3755,6 +3975,8 @@
       <c r="H104" s="77"/>
       <c r="I104" s="77"/>
       <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3774,7 +3996,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12097,13 +12319,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR102"/>
+  <dimension ref="A1:AS102"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12118,12 +12340,12 @@
     <col min="21" max="21" width="3.7109375" style="5" customWidth="1"/>
     <col min="22" max="30" width="3.7109375" customWidth="1"/>
     <col min="31" max="31" width="3.7109375" style="5" customWidth="1"/>
-    <col min="32" max="40" width="6.5703125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="44.140625" style="62" customWidth="1"/>
-    <col min="42" max="44" width="9.140625" style="1"/>
+    <col min="32" max="41" width="6.5703125" style="2" customWidth="1"/>
+    <col min="42" max="42" width="44.140625" style="62" customWidth="1"/>
+    <col min="43" max="45" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="22" t="s">
         <v>14</v>
@@ -12172,14 +12394,15 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="7"/>
       <c r="AN1" s="7"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="64" t="s">
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="66"/>
-    </row>
-    <row r="2" spans="1:44" ht="72" x14ac:dyDescent="0.25">
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="66"/>
+    </row>
+    <row r="2" spans="1:45" ht="72" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
@@ -12328,22 +12551,25 @@
         <v>22</v>
       </c>
       <c r="AN2" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AO2" s="60" t="s">
+      <c r="AP2" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="AP2" s="63" t="s">
-        <v>134</v>
-      </c>
       <c r="AQ2" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR2" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" s="63" t="s">
+      <c r="AS2" s="63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="str">
         <f>SAP!A3</f>
         <v>Fred</v>
@@ -12501,27 +12727,31 @@
         <v>0.5</v>
       </c>
       <c r="AN3" s="17">
+        <f ca="1">IF(AF3=0,"",AF3 + (AI3 - AG3)/(AL3))</f>
+        <v>168</v>
+      </c>
+      <c r="AO3" s="17">
         <f ca="1">IF(AF3=0,"",IFERROR((AI3-AG3)/(AI3-AF3),0))</f>
         <v>1.3461538461538463</v>
       </c>
-      <c r="AO3" s="61" t="str">
-        <f t="shared" ref="AO3:AO34" ca="1" si="0">IF(A3=0,"",IFERROR(VLOOKUP(IF(AND(AL3&lt;0.8,AM3&lt;0.8),"know",IF(AL3&lt;0.8,"cost",IF(AM3&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+      <c r="AP3" s="61" t="str">
+        <f t="shared" ref="AP3:AP34" ca="1" si="0">IF(A3=0,"",IFERROR(VLOOKUP(IF(AND(AL3&lt;0.8,AM3&lt;0.8),"know",IF(AL3&lt;0.8,"cost",IF(AM3&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP3" s="68">
-        <f ca="1">AJ3+AK3</f>
-        <v>-21</v>
-      </c>
       <c r="AQ3" s="68">
-        <f ca="1">IF(AP3=0,"",AP3+(1-COUNTIF(AP$3:AP3,AP3))/1000)</f>
-        <v>-21</v>
-      </c>
-      <c r="AR3" s="67">
-        <f ca="1">IF(AP3=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ3))</f>
+        <f ca="1">IF(AF3=0,0,AI3-AN3)</f>
+        <v>-108</v>
+      </c>
+      <c r="AR3" s="68">
+        <f ca="1">IF(AQ3=0,"",AQ3+(1-COUNTIF(AQ$3:AQ3,AQ3))/1000)</f>
+        <v>-108</v>
+      </c>
+      <c r="AS3" s="67">
+        <f ca="1">IF(AQ3=0,"",COUNTIFS(AR$3:AR$20,"&lt;="&amp;AR3))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="str">
         <f>SAP!A4</f>
         <v>Sue</v>
@@ -12679,27 +12909,31 @@
         <v>1</v>
       </c>
       <c r="AN4" s="17">
-        <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",IFERROR((AI4-AG4)/(AI4-AF4),0))</f>
+        <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",AF4 + (AI4 - AG4)/(AL4))</f>
+        <v>59.599999999999994</v>
+      </c>
+      <c r="AO4" s="17">
+        <f t="shared" ref="AO4:AO67" ca="1" si="7">IF(AF4=0,"",IFERROR((AI4-AG4)/(AI4-AF4),0))</f>
         <v>0.99778270509977829</v>
       </c>
-      <c r="AO4" s="61" t="str">
+      <c r="AP4" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Doing well, may be able to coach others</v>
       </c>
-      <c r="AP4" s="68">
-        <f t="shared" ref="AP4:AP67" ca="1" si="7">AJ4+AK4</f>
-        <v>0.10000000000000142</v>
-      </c>
       <c r="AQ4" s="68">
-        <f ca="1">IF(AP4=0,"",AP4+(1-COUNTIF(AP$3:AP4,AP4))/1000)</f>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="AR4" s="67">
-        <f t="shared" ref="AR4:AR67" ca="1" si="8">IF(AP4=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ4))</f>
+        <f t="shared" ref="AQ4:AQ67" ca="1" si="8">IF(AF4=0,0,AI4-AN4)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="AR4" s="68">
+        <f ca="1">IF(AQ4=0,"",AQ4+(1-COUNTIF(AQ$3:AQ4,AQ4))/1000)</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="AS4" s="67">
+        <f t="shared" ref="AS4:AS67" ca="1" si="9">IF(AQ4=0,"",COUNTIFS(AR$3:AR$20,"&lt;="&amp;AR4))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="str">
         <f>SAP!A5</f>
         <v>Zoe</v>
@@ -12858,26 +13092,30 @@
       </c>
       <c r="AN5" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="AO5" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>0.95744680851063835</v>
       </c>
-      <c r="AO5" s="61" t="str">
+      <c r="AP5" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Doing well, may be able to coach others</v>
       </c>
-      <c r="AP5" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
       <c r="AQ5" s="68">
-        <f ca="1">IF(AP5=0,"",AP5+(1-COUNTIF(AP$3:AP5,AP5))/1000)</f>
-        <v>2</v>
-      </c>
-      <c r="AR5" s="67">
         <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AR5" s="68">
+        <f ca="1">IF(AQ5=0,"",AQ5+(1-COUNTIF(AQ$3:AQ5,AQ5))/1000)</f>
+        <v>8</v>
+      </c>
+      <c r="AS5" s="67">
+        <f t="shared" ca="1" si="9"/>
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="str">
         <f>SAP!A6</f>
         <v>Kurt</v>
@@ -13036,26 +13274,30 @@
       </c>
       <c r="AN6" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AO6" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0294117647058822</v>
       </c>
-      <c r="AO6" s="61" t="str">
+      <c r="AP6" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Not completing milestones in the week due</v>
       </c>
-      <c r="AP6" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
-      </c>
       <c r="AQ6" s="68">
-        <f ca="1">IF(AP6=0,"",AP6+(1-COUNTIF(AP$3:AP6,AP6))/1000)</f>
-        <v>-9</v>
-      </c>
-      <c r="AR6" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-12</v>
+      </c>
+      <c r="AR6" s="68">
+        <f ca="1">IF(AQ6=0,"",AQ6+(1-COUNTIF(AQ$3:AQ6,AQ6))/1000)</f>
+        <v>-12</v>
+      </c>
+      <c r="AS6" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="str">
         <f>SAP!A7</f>
         <v>Stu</v>
@@ -13214,26 +13456,30 @@
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="AO7" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="AO7" s="61" t="str">
+      <c r="AP7" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP7" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-13.5</v>
-      </c>
       <c r="AQ7" s="68">
-        <f ca="1">IF(AP7=0,"",AP7+(1-COUNTIF(AP$3:AP7,AP7))/1000)</f>
-        <v>-13.5</v>
-      </c>
-      <c r="AR7" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-36</v>
+      </c>
+      <c r="AR7" s="68">
+        <f ca="1">IF(AQ7=0,"",AQ7+(1-COUNTIF(AQ$3:AQ7,AQ7))/1000)</f>
+        <v>-36</v>
+      </c>
+      <c r="AS7" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="str">
         <f>SAP!A8</f>
         <v>Frank</v>
@@ -13392,26 +13638,30 @@
       </c>
       <c r="AN8" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>74.666666666666657</v>
+      </c>
+      <c r="AO8" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0597826086956521</v>
       </c>
-      <c r="AO8" s="61" t="str">
+      <c r="AP8" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Not completing milestones in the week due</v>
       </c>
-      <c r="AP8" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-6.5</v>
-      </c>
       <c r="AQ8" s="68">
-        <f ca="1">IF(AP8=0,"",AP8+(1-COUNTIF(AP$3:AP8,AP8))/1000)</f>
-        <v>-6.5</v>
-      </c>
-      <c r="AR8" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-14.666666666666657</v>
+      </c>
+      <c r="AR8" s="68">
+        <f ca="1">IF(AQ8=0,"",AQ8+(1-COUNTIF(AQ$3:AQ8,AQ8))/1000)</f>
+        <v>-14.666666666666657</v>
+      </c>
+      <c r="AS8" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="str">
         <f>SAP!A9</f>
         <v>Nancy</v>
@@ -13570,26 +13820,30 @@
       </c>
       <c r="AN9" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="AO9" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0044642857142858</v>
       </c>
-      <c r="AO9" s="61" t="str">
+      <c r="AP9" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Not completing milestones in the week due</v>
       </c>
-      <c r="AP9" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-11.5</v>
-      </c>
       <c r="AQ9" s="68">
-        <f ca="1">IF(AP9=0,"",AP9+(1-COUNTIF(AP$3:AP9,AP9))/1000)</f>
-        <v>-11.5</v>
-      </c>
-      <c r="AR9" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-4</v>
+      </c>
+      <c r="AR9" s="68">
+        <f ca="1">IF(AQ9=0,"",AQ9+(1-COUNTIF(AQ$3:AQ9,AQ9))/1000)</f>
+        <v>-4</v>
+      </c>
+      <c r="AS9" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="str">
         <f>SAP!A10</f>
         <v>Bill</v>
@@ -13748,26 +14002,30 @@
       </c>
       <c r="AN10" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="AO10" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0294117647058822</v>
       </c>
-      <c r="AO10" s="61" t="str">
+      <c r="AP10" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Not completing milestones in the week due</v>
       </c>
-      <c r="AP10" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-9</v>
-      </c>
       <c r="AQ10" s="68">
-        <f ca="1">IF(AP10=0,"",AP10+(1-COUNTIF(AP$3:AP10,AP10))/1000)</f>
-        <v>-9.0009999999999994</v>
-      </c>
-      <c r="AR10" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-12</v>
+      </c>
+      <c r="AR10" s="68">
+        <f ca="1">IF(AQ10=0,"",AQ10+(1-COUNTIF(AQ$3:AQ10,AQ10))/1000)</f>
+        <v>-12.000999999999999</v>
+      </c>
+      <c r="AS10" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="str">
         <f>SAP!A11</f>
         <v>Ted</v>
@@ -13926,26 +14184,30 @@
       </c>
       <c r="AN11" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="AO11" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0613207547169812</v>
       </c>
-      <c r="AO11" s="61" t="str">
+      <c r="AP11" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP11" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-14.5</v>
-      </c>
       <c r="AQ11" s="68">
-        <f ca="1">IF(AP11=0,"",AP11+(1-COUNTIF(AP$3:AP11,AP11))/1000)</f>
-        <v>-14.5</v>
-      </c>
-      <c r="AR11" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-52</v>
+      </c>
+      <c r="AR11" s="68">
+        <f ca="1">IF(AQ11=0,"",AQ11+(1-COUNTIF(AQ$3:AQ11,AQ11))/1000)</f>
+        <v>-52</v>
+      </c>
+      <c r="AS11" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="str">
         <f>SAP!A12</f>
         <v>Tom</v>
@@ -14104,26 +14366,30 @@
       </c>
       <c r="AN12" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>104.00000000000001</v>
+      </c>
+      <c r="AO12" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.1170212765957446</v>
       </c>
-      <c r="AO12" s="61" t="str">
+      <c r="AP12" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP12" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
-      </c>
       <c r="AQ12" s="68">
-        <f ca="1">IF(AP12=0,"",AP12+(1-COUNTIF(AP$3:AP12,AP12))/1000)</f>
-        <v>-13</v>
-      </c>
-      <c r="AR12" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-44.000000000000014</v>
+      </c>
+      <c r="AR12" s="68">
+        <f ca="1">IF(AQ12=0,"",AQ12+(1-COUNTIF(AQ$3:AQ12,AQ12))/1000)</f>
+        <v>-44.000000000000014</v>
+      </c>
+      <c r="AS12" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="str">
         <f>SAP!A13</f>
         <v>Dick</v>
@@ -14282,26 +14548,30 @@
       </c>
       <c r="AN13" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="AO13" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.09375</v>
       </c>
-      <c r="AO13" s="61" t="str">
+      <c r="AP13" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP13" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-12</v>
-      </c>
       <c r="AQ13" s="68">
-        <f ca="1">IF(AP13=0,"",AP13+(1-COUNTIF(AP$3:AP13,AP13))/1000)</f>
-        <v>-12</v>
-      </c>
-      <c r="AR13" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-36</v>
+      </c>
+      <c r="AR13" s="68">
+        <f ca="1">IF(AQ13=0,"",AQ13+(1-COUNTIF(AQ$3:AQ13,AQ13))/1000)</f>
+        <v>-36.000999999999998</v>
+      </c>
+      <c r="AS13" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="str">
         <f>SAP!A14</f>
         <v>Harry</v>
@@ -14460,26 +14730,30 @@
       </c>
       <c r="AN14" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="AO14" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.1842105263157894</v>
       </c>
-      <c r="AO14" s="61" t="str">
+      <c r="AP14" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>Charging time to the wrong SAP code</v>
       </c>
-      <c r="AP14" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-7</v>
-      </c>
       <c r="AQ14" s="68">
-        <f ca="1">IF(AP14=0,"",AP14+(1-COUNTIF(AP$3:AP14,AP14))/1000)</f>
-        <v>-7</v>
-      </c>
-      <c r="AR14" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-28</v>
+      </c>
+      <c r="AR14" s="68">
+        <f ca="1">IF(AQ14=0,"",AQ14+(1-COUNTIF(AQ$3:AQ14,AQ14))/1000)</f>
+        <v>-28</v>
+      </c>
+      <c r="AS14" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="str">
         <f>SAP!A15</f>
         <v>Mona</v>
@@ -14638,26 +14912,30 @@
       </c>
       <c r="AN15" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="AO15" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0817307692307692</v>
       </c>
-      <c r="AO15" s="61" t="str">
+      <c r="AP15" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP15" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-15.5</v>
-      </c>
       <c r="AQ15" s="68">
-        <f ca="1">IF(AP15=0,"",AP15+(1-COUNTIF(AP$3:AP15,AP15))/1000)</f>
-        <v>-15.5</v>
-      </c>
-      <c r="AR15" s="67">
         <f t="shared" ca="1" si="8"/>
+        <v>-68</v>
+      </c>
+      <c r="AR15" s="68">
+        <f ca="1">IF(AQ15=0,"",AQ15+(1-COUNTIF(AQ$3:AQ15,AQ15))/1000)</f>
+        <v>-68</v>
+      </c>
+      <c r="AS15" s="67">
+        <f t="shared" ca="1" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="str">
         <f>SAP!A16</f>
         <v>Kathy</v>
@@ -14816,26 +15094,30 @@
       </c>
       <c r="AN16" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="AO16" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.125</v>
       </c>
-      <c r="AO16" s="61" t="str">
+      <c r="AP16" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP16" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-17.5</v>
-      </c>
       <c r="AQ16" s="68">
-        <f ca="1">IF(AP16=0,"",AP16+(1-COUNTIF(AP$3:AP16,AP16))/1000)</f>
-        <v>-17.5</v>
-      </c>
-      <c r="AR16" s="67">
         <f t="shared" ca="1" si="8"/>
+        <v>-100</v>
+      </c>
+      <c r="AR16" s="68">
+        <f ca="1">IF(AQ16=0,"",AQ16+(1-COUNTIF(AQ$3:AQ16,AQ16))/1000)</f>
+        <v>-100</v>
+      </c>
+      <c r="AS16" s="67">
+        <f t="shared" ca="1" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="str">
         <f>SAP!A17</f>
         <v>Lynda</v>
@@ -14994,26 +15276,30 @@
       </c>
       <c r="AN17" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="AO17" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.1413043478260869</v>
       </c>
-      <c r="AO17" s="61" t="str">
+      <c r="AP17" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP17" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-14</v>
-      </c>
       <c r="AQ17" s="68">
-        <f ca="1">IF(AP17=0,"",AP17+(1-COUNTIF(AP$3:AP17,AP17))/1000)</f>
-        <v>-14</v>
-      </c>
-      <c r="AR17" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-52</v>
+      </c>
+      <c r="AR17" s="68">
+        <f ca="1">IF(AQ17=0,"",AQ17+(1-COUNTIF(AQ$3:AQ17,AQ17))/1000)</f>
+        <v>-52.000999999999998</v>
+      </c>
+      <c r="AS17" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="str">
         <f>SAP!A18</f>
         <v>Judy</v>
@@ -15172,26 +15458,30 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>112</v>
+      </c>
+      <c r="AO18" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.1413043478260869</v>
       </c>
-      <c r="AO18" s="61" t="str">
+      <c r="AP18" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP18" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-14</v>
-      </c>
       <c r="AQ18" s="68">
-        <f ca="1">IF(AP18=0,"",AP18+(1-COUNTIF(AP$3:AP18,AP18))/1000)</f>
-        <v>-14.000999999999999</v>
-      </c>
-      <c r="AR18" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-52</v>
+      </c>
+      <c r="AR18" s="68">
+        <f ca="1">IF(AQ18=0,"",AQ18+(1-COUNTIF(AQ$3:AQ18,AQ18))/1000)</f>
+        <v>-52.002000000000002</v>
+      </c>
+      <c r="AS18" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="str">
         <f>SAP!A19</f>
         <v>Henry</v>
@@ -15350,26 +15640,30 @@
       </c>
       <c r="AN19" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>104.00000000000001</v>
+      </c>
+      <c r="AO19" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.1170212765957446</v>
       </c>
-      <c r="AO19" s="61" t="str">
+      <c r="AP19" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP19" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-13</v>
-      </c>
       <c r="AQ19" s="68">
-        <f ca="1">IF(AP19=0,"",AP19+(1-COUNTIF(AP$3:AP19,AP19))/1000)</f>
-        <v>-13.000999999999999</v>
-      </c>
-      <c r="AR19" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-44.000000000000014</v>
+      </c>
+      <c r="AR19" s="68">
+        <f ca="1">IF(AQ19=0,"",AQ19+(1-COUNTIF(AQ$3:AQ19,AQ19))/1000)</f>
+        <v>-44.001000000000012</v>
+      </c>
+      <c r="AS19" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="str">
         <f>SAP!A20</f>
         <v>Mike</v>
@@ -15528,26 +15822,30 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" ca="1" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="AO20" s="17">
+        <f t="shared" ca="1" si="7"/>
         <v>1.0416666666666667</v>
       </c>
-      <c r="AO20" s="61" t="str">
+      <c r="AP20" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>May be having difficulty with the material</v>
       </c>
-      <c r="AP20" s="68">
-        <f t="shared" ca="1" si="7"/>
-        <v>-13.5</v>
-      </c>
       <c r="AQ20" s="68">
-        <f ca="1">IF(AP20=0,"",AP20+(1-COUNTIF(AP$3:AP20,AP20))/1000)</f>
-        <v>-13.500999999999999</v>
-      </c>
-      <c r="AR20" s="67">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+        <v>-36</v>
+      </c>
+      <c r="AR20" s="68">
+        <f ca="1">IF(AQ20=0,"",AQ20+(1-COUNTIF(AQ$3:AQ20,AQ20))/1000)</f>
+        <v>-36.002000000000002</v>
+      </c>
+      <c r="AS20" s="67">
+        <f t="shared" ca="1" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <f>SAP!A21</f>
         <v>0</v>
@@ -15702,24 +16000,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO21" s="61" t="str">
+      <c r="AO21" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP21" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP21" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="68" t="str">
-        <f>IF(AP21=0,"",AP21+(1-COUNTIF(AP$3:AP21,AP21))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR21" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="68" t="str">
+        <f ca="1">IF(AQ21=0,"",AQ21+(1-COUNTIF(AQ$3:AQ21,AQ21))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS21" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <f>SAP!A22</f>
         <v>0</v>
@@ -15874,24 +16176,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO22" s="61" t="str">
+      <c r="AO22" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP22" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP22" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="68" t="str">
-        <f>IF(AP22=0,"",AP22+(1-COUNTIF(AP$3:AP22,AP22))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR22" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="68" t="str">
+        <f ca="1">IF(AQ22=0,"",AQ22+(1-COUNTIF(AQ$3:AQ22,AQ22))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS22" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <f>SAP!A23</f>
         <v>0</v>
@@ -16046,24 +16352,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO23" s="61" t="str">
+      <c r="AO23" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP23" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP23" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="68" t="str">
-        <f>IF(AP23=0,"",AP23+(1-COUNTIF(AP$3:AP23,AP23))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR23" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="68" t="str">
+        <f ca="1">IF(AQ23=0,"",AQ23+(1-COUNTIF(AQ$3:AQ23,AQ23))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS23" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <f>SAP!A24</f>
         <v>0</v>
@@ -16218,24 +16528,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO24" s="61" t="str">
+      <c r="AO24" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP24" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP24" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="68" t="str">
-        <f>IF(AP24=0,"",AP24+(1-COUNTIF(AP$3:AP24,AP24))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR24" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR24" s="68" t="str">
+        <f ca="1">IF(AQ24=0,"",AQ24+(1-COUNTIF(AQ$3:AQ24,AQ24))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS24" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <f>SAP!A25</f>
         <v>0</v>
@@ -16390,24 +16704,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO25" s="61" t="str">
+      <c r="AO25" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP25" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP25" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="68" t="str">
-        <f>IF(AP25=0,"",AP25+(1-COUNTIF(AP$3:AP25,AP25))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR25" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR25" s="68" t="str">
+        <f ca="1">IF(AQ25=0,"",AQ25+(1-COUNTIF(AQ$3:AQ25,AQ25))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS25" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <f>SAP!A26</f>
         <v>0</v>
@@ -16562,24 +16880,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO26" s="61" t="str">
+      <c r="AO26" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP26" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP26" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="68" t="str">
-        <f>IF(AP26=0,"",AP26+(1-COUNTIF(AP$3:AP26,AP26))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR26" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ26" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR26" s="68" t="str">
+        <f ca="1">IF(AQ26=0,"",AQ26+(1-COUNTIF(AQ$3:AQ26,AQ26))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS26" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <f>SAP!A27</f>
         <v>0</v>
@@ -16734,24 +17056,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO27" s="61" t="str">
+      <c r="AO27" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP27" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP27" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="68" t="str">
-        <f>IF(AP27=0,"",AP27+(1-COUNTIF(AP$3:AP27,AP27))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR27" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR27" s="68" t="str">
+        <f ca="1">IF(AQ27=0,"",AQ27+(1-COUNTIF(AQ$3:AQ27,AQ27))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS27" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <f>SAP!A28</f>
         <v>0</v>
@@ -16906,24 +17232,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO28" s="61" t="str">
+      <c r="AO28" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP28" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP28" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="68" t="str">
-        <f>IF(AP28=0,"",AP28+(1-COUNTIF(AP$3:AP28,AP28))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR28" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ28" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR28" s="68" t="str">
+        <f ca="1">IF(AQ28=0,"",AQ28+(1-COUNTIF(AQ$3:AQ28,AQ28))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS28" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <f>SAP!A29</f>
         <v>0</v>
@@ -17078,24 +17408,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO29" s="61" t="str">
+      <c r="AO29" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP29" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP29" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="68" t="str">
-        <f>IF(AP29=0,"",AP29+(1-COUNTIF(AP$3:AP29,AP29))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR29" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ29" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR29" s="68" t="str">
+        <f ca="1">IF(AQ29=0,"",AQ29+(1-COUNTIF(AQ$3:AQ29,AQ29))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS29" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <f>SAP!A30</f>
         <v>0</v>
@@ -17250,24 +17584,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO30" s="61" t="str">
+      <c r="AO30" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP30" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP30" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ30" s="68" t="str">
-        <f>IF(AP30=0,"",AP30+(1-COUNTIF(AP$3:AP30,AP30))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR30" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ30" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR30" s="68" t="str">
+        <f ca="1">IF(AQ30=0,"",AQ30+(1-COUNTIF(AQ$3:AQ30,AQ30))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS30" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <f>SAP!A31</f>
         <v>0</v>
@@ -17422,24 +17760,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO31" s="61" t="str">
+      <c r="AO31" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP31" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP31" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ31" s="68" t="str">
-        <f>IF(AP31=0,"",AP31+(1-COUNTIF(AP$3:AP31,AP31))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR31" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ31" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR31" s="68" t="str">
+        <f ca="1">IF(AQ31=0,"",AQ31+(1-COUNTIF(AQ$3:AQ31,AQ31))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS31" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <f>SAP!A32</f>
         <v>0</v>
@@ -17594,24 +17936,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO32" s="61" t="str">
+      <c r="AO32" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP32" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP32" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="68" t="str">
-        <f>IF(AP32=0,"",AP32+(1-COUNTIF(AP$3:AP32,AP32))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR32" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ32" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR32" s="68" t="str">
+        <f ca="1">IF(AQ32=0,"",AQ32+(1-COUNTIF(AQ$3:AQ32,AQ32))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS32" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <f>SAP!A33</f>
         <v>0</v>
@@ -17766,24 +18112,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO33" s="61" t="str">
+      <c r="AO33" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP33" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP33" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="68" t="str">
-        <f>IF(AP33=0,"",AP33+(1-COUNTIF(AP$3:AP33,AP33))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR33" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR33" s="68" t="str">
+        <f ca="1">IF(AQ33=0,"",AQ33+(1-COUNTIF(AQ$3:AQ33,AQ33))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS33" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <f>SAP!A34</f>
         <v>0</v>
@@ -17938,24 +18288,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO34" s="61" t="str">
+      <c r="AO34" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP34" s="61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP34" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="68" t="str">
-        <f>IF(AP34=0,"",AP34+(1-COUNTIF(AP$3:AP34,AP34))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR34" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AQ34" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR34" s="68" t="str">
+        <f ca="1">IF(AQ34=0,"",AQ34+(1-COUNTIF(AQ$3:AQ34,AQ34))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS34" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <f>SAP!A35</f>
         <v>0</v>
@@ -18110,24 +18464,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO35" s="61" t="str">
-        <f t="shared" ref="AO35:AO66" si="9">IF(A35=0,"",IFERROR(VLOOKUP(IF(AND(AL35&lt;0.8,AM35&lt;0.8),"know",IF(AL35&lt;0.8,"cost",IF(AM35&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="AP35" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ35" s="68" t="str">
-        <f>IF(AP35=0,"",AP35+(1-COUNTIF(AP$3:AP35,AP35))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR35" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO35" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP35" s="61" t="str">
+        <f t="shared" ref="AP35:AP66" si="10">IF(A35=0,"",IFERROR(VLOOKUP(IF(AND(AL35&lt;0.8,AM35&lt;0.8),"know",IF(AL35&lt;0.8,"cost",IF(AM35&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="AQ35" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR35" s="68" t="str">
+        <f ca="1">IF(AQ35=0,"",AQ35+(1-COUNTIF(AQ$3:AQ35,AQ35))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS35" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <f>SAP!A36</f>
         <v>0</v>
@@ -18282,24 +18640,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO36" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP36" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="68" t="str">
-        <f>IF(AP36=0,"",AP36+(1-COUNTIF(AP$3:AP36,AP36))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR36" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO36" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP36" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ36" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR36" s="68" t="str">
+        <f ca="1">IF(AQ36=0,"",AQ36+(1-COUNTIF(AQ$3:AQ36,AQ36))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS36" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <f>SAP!A37</f>
         <v>0</v>
@@ -18454,24 +18816,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO37" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP37" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ37" s="68" t="str">
-        <f>IF(AP37=0,"",AP37+(1-COUNTIF(AP$3:AP37,AP37))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR37" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO37" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP37" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ37" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR37" s="68" t="str">
+        <f ca="1">IF(AQ37=0,"",AQ37+(1-COUNTIF(AQ$3:AQ37,AQ37))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS37" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <f>SAP!A38</f>
         <v>0</v>
@@ -18626,24 +18992,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO38" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP38" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="68" t="str">
-        <f>IF(AP38=0,"",AP38+(1-COUNTIF(AP$3:AP38,AP38))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR38" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO38" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP38" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ38" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR38" s="68" t="str">
+        <f ca="1">IF(AQ38=0,"",AQ38+(1-COUNTIF(AQ$3:AQ38,AQ38))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS38" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <f>SAP!A39</f>
         <v>0</v>
@@ -18798,24 +19168,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO39" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP39" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="68" t="str">
-        <f>IF(AP39=0,"",AP39+(1-COUNTIF(AP$3:AP39,AP39))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR39" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO39" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP39" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ39" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR39" s="68" t="str">
+        <f ca="1">IF(AQ39=0,"",AQ39+(1-COUNTIF(AQ$3:AQ39,AQ39))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS39" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <f>SAP!A40</f>
         <v>0</v>
@@ -18970,24 +19344,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO40" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP40" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="68" t="str">
-        <f>IF(AP40=0,"",AP40+(1-COUNTIF(AP$3:AP40,AP40))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR40" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO40" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP40" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ40" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR40" s="68" t="str">
+        <f ca="1">IF(AQ40=0,"",AQ40+(1-COUNTIF(AQ$3:AQ40,AQ40))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS40" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <f>SAP!A41</f>
         <v>0</v>
@@ -19142,24 +19520,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO41" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP41" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="68" t="str">
-        <f>IF(AP41=0,"",AP41+(1-COUNTIF(AP$3:AP41,AP41))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR41" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO41" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP41" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ41" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR41" s="68" t="str">
+        <f ca="1">IF(AQ41=0,"",AQ41+(1-COUNTIF(AQ$3:AQ41,AQ41))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS41" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <f>SAP!A42</f>
         <v>0</v>
@@ -19314,24 +19696,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO42" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP42" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="68" t="str">
-        <f>IF(AP42=0,"",AP42+(1-COUNTIF(AP$3:AP42,AP42))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR42" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO42" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP42" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ42" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR42" s="68" t="str">
+        <f ca="1">IF(AQ42=0,"",AQ42+(1-COUNTIF(AQ$3:AQ42,AQ42))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS42" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <f>SAP!A43</f>
         <v>0</v>
@@ -19486,24 +19872,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO43" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP43" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="68" t="str">
-        <f>IF(AP43=0,"",AP43+(1-COUNTIF(AP$3:AP43,AP43))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR43" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO43" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP43" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ43" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR43" s="68" t="str">
+        <f ca="1">IF(AQ43=0,"",AQ43+(1-COUNTIF(AQ$3:AQ43,AQ43))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS43" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <f>SAP!A44</f>
         <v>0</v>
@@ -19658,24 +20048,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO44" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP44" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ44" s="68" t="str">
-        <f>IF(AP44=0,"",AP44+(1-COUNTIF(AP$3:AP44,AP44))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR44" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO44" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP44" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ44" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR44" s="68" t="str">
+        <f ca="1">IF(AQ44=0,"",AQ44+(1-COUNTIF(AQ$3:AQ44,AQ44))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS44" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <f>SAP!A45</f>
         <v>0</v>
@@ -19830,24 +20224,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO45" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP45" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="68" t="str">
-        <f>IF(AP45=0,"",AP45+(1-COUNTIF(AP$3:AP45,AP45))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR45" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO45" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP45" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ45" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR45" s="68" t="str">
+        <f ca="1">IF(AQ45=0,"",AQ45+(1-COUNTIF(AQ$3:AQ45,AQ45))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS45" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <f>SAP!A46</f>
         <v>0</v>
@@ -20002,24 +20400,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO46" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP46" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="68" t="str">
-        <f>IF(AP46=0,"",AP46+(1-COUNTIF(AP$3:AP46,AP46))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR46" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO46" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP46" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ46" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR46" s="68" t="str">
+        <f ca="1">IF(AQ46=0,"",AQ46+(1-COUNTIF(AQ$3:AQ46,AQ46))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS46" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <f>SAP!A47</f>
         <v>0</v>
@@ -20174,24 +20576,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO47" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP47" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="68" t="str">
-        <f>IF(AP47=0,"",AP47+(1-COUNTIF(AP$3:AP47,AP47))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR47" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO47" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP47" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ47" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR47" s="68" t="str">
+        <f ca="1">IF(AQ47=0,"",AQ47+(1-COUNTIF(AQ$3:AQ47,AQ47))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS47" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <f>SAP!A48</f>
         <v>0</v>
@@ -20346,24 +20752,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO48" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP48" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ48" s="68" t="str">
-        <f>IF(AP48=0,"",AP48+(1-COUNTIF(AP$3:AP48,AP48))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR48" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO48" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP48" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ48" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR48" s="68" t="str">
+        <f ca="1">IF(AQ48=0,"",AQ48+(1-COUNTIF(AQ$3:AQ48,AQ48))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS48" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <f>SAP!A49</f>
         <v>0</v>
@@ -20518,24 +20928,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO49" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP49" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ49" s="68" t="str">
-        <f>IF(AP49=0,"",AP49+(1-COUNTIF(AP$3:AP49,AP49))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR49" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO49" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP49" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ49" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR49" s="68" t="str">
+        <f ca="1">IF(AQ49=0,"",AQ49+(1-COUNTIF(AQ$3:AQ49,AQ49))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS49" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <f>SAP!A50</f>
         <v>0</v>
@@ -20690,24 +21104,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO50" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP50" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="68" t="str">
-        <f>IF(AP50=0,"",AP50+(1-COUNTIF(AP$3:AP50,AP50))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR50" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO50" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP50" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ50" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR50" s="68" t="str">
+        <f ca="1">IF(AQ50=0,"",AQ50+(1-COUNTIF(AQ$3:AQ50,AQ50))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS50" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <f>SAP!A51</f>
         <v>0</v>
@@ -20862,24 +21280,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO51" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP51" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="68" t="str">
-        <f>IF(AP51=0,"",AP51+(1-COUNTIF(AP$3:AP51,AP51))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR51" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO51" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP51" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ51" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR51" s="68" t="str">
+        <f ca="1">IF(AQ51=0,"",AQ51+(1-COUNTIF(AQ$3:AQ51,AQ51))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS51" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <f>SAP!A52</f>
         <v>0</v>
@@ -21034,24 +21456,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO52" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP52" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="68" t="str">
-        <f>IF(AP52=0,"",AP52+(1-COUNTIF(AP$3:AP52,AP52))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR52" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO52" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP52" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ52" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR52" s="68" t="str">
+        <f ca="1">IF(AQ52=0,"",AQ52+(1-COUNTIF(AQ$3:AQ52,AQ52))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS52" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <f>SAP!A53</f>
         <v>0</v>
@@ -21206,24 +21632,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO53" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP53" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="68" t="str">
-        <f>IF(AP53=0,"",AP53+(1-COUNTIF(AP$3:AP53,AP53))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR53" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO53" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP53" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ53" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR53" s="68" t="str">
+        <f ca="1">IF(AQ53=0,"",AQ53+(1-COUNTIF(AQ$3:AQ53,AQ53))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS53" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <f>SAP!A54</f>
         <v>0</v>
@@ -21378,24 +21808,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO54" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP54" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="68" t="str">
-        <f>IF(AP54=0,"",AP54+(1-COUNTIF(AP$3:AP54,AP54))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR54" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO54" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP54" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ54" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR54" s="68" t="str">
+        <f ca="1">IF(AQ54=0,"",AQ54+(1-COUNTIF(AQ$3:AQ54,AQ54))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS54" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <f>SAP!A55</f>
         <v>0</v>
@@ -21550,24 +21984,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO55" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP55" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ55" s="68" t="str">
-        <f>IF(AP55=0,"",AP55+(1-COUNTIF(AP$3:AP55,AP55))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR55" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO55" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP55" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ55" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR55" s="68" t="str">
+        <f ca="1">IF(AQ55=0,"",AQ55+(1-COUNTIF(AQ$3:AQ55,AQ55))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS55" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <f>SAP!A56</f>
         <v>0</v>
@@ -21722,24 +22160,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO56" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP56" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ56" s="68" t="str">
-        <f>IF(AP56=0,"",AP56+(1-COUNTIF(AP$3:AP56,AP56))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR56" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO56" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP56" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ56" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR56" s="68" t="str">
+        <f ca="1">IF(AQ56=0,"",AQ56+(1-COUNTIF(AQ$3:AQ56,AQ56))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS56" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <f>SAP!A57</f>
         <v>0</v>
@@ -21894,24 +22336,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO57" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP57" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="68" t="str">
-        <f>IF(AP57=0,"",AP57+(1-COUNTIF(AP$3:AP57,AP57))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR57" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO57" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP57" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ57" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR57" s="68" t="str">
+        <f ca="1">IF(AQ57=0,"",AQ57+(1-COUNTIF(AQ$3:AQ57,AQ57))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS57" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <f>SAP!A58</f>
         <v>0</v>
@@ -22066,24 +22512,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO58" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP58" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="68" t="str">
-        <f>IF(AP58=0,"",AP58+(1-COUNTIF(AP$3:AP58,AP58))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR58" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO58" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP58" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ58" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR58" s="68" t="str">
+        <f ca="1">IF(AQ58=0,"",AQ58+(1-COUNTIF(AQ$3:AQ58,AQ58))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS58" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <f>SAP!A59</f>
         <v>0</v>
@@ -22238,24 +22688,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO59" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP59" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="68" t="str">
-        <f>IF(AP59=0,"",AP59+(1-COUNTIF(AP$3:AP59,AP59))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR59" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO59" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP59" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ59" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="68" t="str">
+        <f ca="1">IF(AQ59=0,"",AQ59+(1-COUNTIF(AQ$3:AQ59,AQ59))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS59" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <f>SAP!A60</f>
         <v>0</v>
@@ -22410,24 +22864,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO60" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP60" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ60" s="68" t="str">
-        <f>IF(AP60=0,"",AP60+(1-COUNTIF(AP$3:AP60,AP60))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR60" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO60" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP60" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ60" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR60" s="68" t="str">
+        <f ca="1">IF(AQ60=0,"",AQ60+(1-COUNTIF(AQ$3:AQ60,AQ60))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS60" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <f>SAP!A61</f>
         <v>0</v>
@@ -22582,24 +23040,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO61" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP61" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="68" t="str">
-        <f>IF(AP61=0,"",AP61+(1-COUNTIF(AP$3:AP61,AP61))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR61" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO61" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP61" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ61" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR61" s="68" t="str">
+        <f ca="1">IF(AQ61=0,"",AQ61+(1-COUNTIF(AQ$3:AQ61,AQ61))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS61" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <f>SAP!A62</f>
         <v>0</v>
@@ -22754,24 +23216,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO62" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP62" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ62" s="68" t="str">
-        <f>IF(AP62=0,"",AP62+(1-COUNTIF(AP$3:AP62,AP62))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR62" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO62" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP62" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ62" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="68" t="str">
+        <f ca="1">IF(AQ62=0,"",AQ62+(1-COUNTIF(AQ$3:AQ62,AQ62))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS62" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <f>SAP!A63</f>
         <v>0</v>
@@ -22926,24 +23392,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO63" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP63" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ63" s="68" t="str">
-        <f>IF(AP63=0,"",AP63+(1-COUNTIF(AP$3:AP63,AP63))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR63" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO63" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP63" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ63" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR63" s="68" t="str">
+        <f ca="1">IF(AQ63=0,"",AQ63+(1-COUNTIF(AQ$3:AQ63,AQ63))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS63" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
         <f>SAP!A64</f>
         <v>0</v>
@@ -23098,24 +23568,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO64" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP64" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ64" s="68" t="str">
-        <f>IF(AP64=0,"",AP64+(1-COUNTIF(AP$3:AP64,AP64))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR64" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO64" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP64" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ64" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR64" s="68" t="str">
+        <f ca="1">IF(AQ64=0,"",AQ64+(1-COUNTIF(AQ$3:AQ64,AQ64))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS64" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
         <f>SAP!A65</f>
         <v>0</v>
@@ -23270,24 +23744,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO65" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP65" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ65" s="68" t="str">
-        <f>IF(AP65=0,"",AP65+(1-COUNTIF(AP$3:AP65,AP65))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR65" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO65" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP65" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ65" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR65" s="68" t="str">
+        <f ca="1">IF(AQ65=0,"",AQ65+(1-COUNTIF(AQ$3:AQ65,AQ65))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS65" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A66" s="33">
         <f>SAP!A66</f>
         <v>0</v>
@@ -23442,24 +23920,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO66" s="61" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="AP66" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ66" s="68" t="str">
-        <f>IF(AP66=0,"",AP66+(1-COUNTIF(AP$3:AP66,AP66))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR66" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO66" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP66" s="61" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="AQ66" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR66" s="68" t="str">
+        <f ca="1">IF(AQ66=0,"",AQ66+(1-COUNTIF(AQ$3:AQ66,AQ66))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS66" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" s="33">
         <f>SAP!A67</f>
         <v>0</v>
@@ -23614,24 +24096,28 @@
         <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="AO67" s="61" t="str">
-        <f t="shared" ref="AO67:AO102" si="10">IF(A67=0,"",IFERROR(VLOOKUP(IF(AND(AL67&lt;0.8,AM67&lt;0.8),"know",IF(AL67&lt;0.8,"cost",IF(AM67&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
-        <v/>
-      </c>
-      <c r="AP67" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="68" t="str">
-        <f>IF(AP67=0,"",AP67+(1-COUNTIF(AP$3:AP67,AP67))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR67" s="67" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AO67" s="17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AP67" s="61" t="str">
+        <f t="shared" ref="AP67:AP102" si="11">IF(A67=0,"",IFERROR(VLOOKUP(IF(AND(AL67&lt;0.8,AM67&lt;0.8),"know",IF(AL67&lt;0.8,"cost",IF(AM67&lt;0.8,"sched",""))),Lookup_Counselling,2,FALSE),""))</f>
+        <v/>
+      </c>
+      <c r="AQ67" s="68">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR67" s="68" t="str">
+        <f ca="1">IF(AQ67=0,"",AQ67+(1-COUNTIF(AQ$3:AQ67,AQ67))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS67" s="67" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A68" s="33">
         <f>SAP!A68</f>
         <v>0</v>
@@ -23761,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="AG68" s="17">
-        <f t="shared" ref="AG68:AG102" ca="1" si="11">SUM(B68:AE68)</f>
+        <f t="shared" ref="AG68:AG102" ca="1" si="12">SUM(B68:AE68)</f>
         <v>0</v>
       </c>
       <c r="AH68" s="17" t="str">
@@ -23775,35 +24261,39 @@
       <c r="AJ68" s="18"/>
       <c r="AK68" s="18"/>
       <c r="AL68" s="17">
-        <f t="shared" ref="AL68:AL102" ca="1" si="12">IFERROR(AG68/AF68,0)</f>
+        <f t="shared" ref="AL68:AL102" ca="1" si="13">IFERROR(AG68/AF68,0)</f>
         <v>0</v>
       </c>
       <c r="AM68" s="17" t="str">
-        <f t="shared" ref="AM68:AM102" ca="1" si="13">IF(AF68=0,"",AG68/AH68)</f>
+        <f t="shared" ref="AM68:AM102" ca="1" si="14">IF(AF68=0,"",AG68/AH68)</f>
         <v/>
       </c>
       <c r="AN68" s="17" t="str">
-        <f t="shared" ref="AN68:AN102" ca="1" si="14">IF(AF68=0,"",IFERROR((AI68-AG68)/(AI68-AF68),0))</f>
-        <v/>
-      </c>
-      <c r="AO68" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP68" s="68">
-        <f t="shared" ref="AP68:AP102" si="15">AJ68+AK68</f>
-        <v>0</v>
-      </c>
-      <c r="AQ68" s="68" t="str">
-        <f>IF(AP68=0,"",AP68+(1-COUNTIF(AP$3:AP68,AP68))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR68" s="67" t="str">
-        <f t="shared" ref="AR68:AR102" si="16">IF(AP68=0,"",COUNTIFS(AQ$3:AQ$20,"&lt;="&amp;AQ68))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AN68:AN102" ca="1" si="15">IF(AF68=0,"",AF68 + (AI68 - AG68)/(AL68))</f>
+        <v/>
+      </c>
+      <c r="AO68" s="17" t="str">
+        <f t="shared" ref="AO68:AO102" ca="1" si="16">IF(AF68=0,"",IFERROR((AI68-AG68)/(AI68-AF68),0))</f>
+        <v/>
+      </c>
+      <c r="AP68" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ68" s="68">
+        <f t="shared" ref="AQ68:AQ102" ca="1" si="17">IF(AF68=0,0,AI68-AN68)</f>
+        <v>0</v>
+      </c>
+      <c r="AR68" s="68" t="str">
+        <f ca="1">IF(AQ68=0,"",AQ68+(1-COUNTIF(AQ$3:AQ68,AQ68))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS68" s="67" t="str">
+        <f t="shared" ref="AS68:AS102" ca="1" si="18">IF(AQ68=0,"",COUNTIFS(AR$3:AR$20,"&lt;="&amp;AR68))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A69" s="33">
         <f>SAP!A69</f>
         <v>0</v>
@@ -23933,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="AG69" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH69" s="17" t="str">
@@ -23947,35 +24437,39 @@
       <c r="AJ69" s="18"/>
       <c r="AK69" s="18"/>
       <c r="AL69" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM69" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN69" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO69" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP69" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="68" t="str">
-        <f>IF(AP69=0,"",AP69+(1-COUNTIF(AP$3:AP69,AP69))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR69" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO69" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP69" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ69" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR69" s="68" t="str">
+        <f ca="1">IF(AQ69=0,"",AQ69+(1-COUNTIF(AQ$3:AQ69,AQ69))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS69" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" s="33">
         <f>SAP!A70</f>
         <v>0</v>
@@ -24105,7 +24599,7 @@
         <v>0</v>
       </c>
       <c r="AG70" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH70" s="17" t="str">
@@ -24119,35 +24613,39 @@
       <c r="AJ70" s="18"/>
       <c r="AK70" s="18"/>
       <c r="AL70" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM70" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN70" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO70" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP70" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="68" t="str">
-        <f>IF(AP70=0,"",AP70+(1-COUNTIF(AP$3:AP70,AP70))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR70" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO70" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP70" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ70" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR70" s="68" t="str">
+        <f ca="1">IF(AQ70=0,"",AQ70+(1-COUNTIF(AQ$3:AQ70,AQ70))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS70" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A71" s="33">
         <f>SAP!A71</f>
         <v>0</v>
@@ -24277,7 +24775,7 @@
         <v>0</v>
       </c>
       <c r="AG71" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH71" s="17" t="str">
@@ -24291,35 +24789,39 @@
       <c r="AJ71" s="18"/>
       <c r="AK71" s="18"/>
       <c r="AL71" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM71" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN71" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO71" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP71" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ71" s="68" t="str">
-        <f>IF(AP71=0,"",AP71+(1-COUNTIF(AP$3:AP71,AP71))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR71" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO71" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP71" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ71" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR71" s="68" t="str">
+        <f ca="1">IF(AQ71=0,"",AQ71+(1-COUNTIF(AQ$3:AQ71,AQ71))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS71" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="33">
         <f>SAP!A72</f>
         <v>0</v>
@@ -24449,7 +24951,7 @@
         <v>0</v>
       </c>
       <c r="AG72" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH72" s="17" t="str">
@@ -24463,35 +24965,39 @@
       <c r="AJ72" s="18"/>
       <c r="AK72" s="18"/>
       <c r="AL72" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM72" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN72" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO72" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP72" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ72" s="68" t="str">
-        <f>IF(AP72=0,"",AP72+(1-COUNTIF(AP$3:AP72,AP72))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR72" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO72" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP72" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ72" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR72" s="68" t="str">
+        <f ca="1">IF(AQ72=0,"",AQ72+(1-COUNTIF(AQ$3:AQ72,AQ72))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS72" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A73" s="33">
         <f>SAP!A73</f>
         <v>0</v>
@@ -24621,7 +25127,7 @@
         <v>0</v>
       </c>
       <c r="AG73" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH73" s="17" t="str">
@@ -24635,35 +25141,39 @@
       <c r="AJ73" s="18"/>
       <c r="AK73" s="18"/>
       <c r="AL73" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM73" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN73" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO73" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP73" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ73" s="68" t="str">
-        <f>IF(AP73=0,"",AP73+(1-COUNTIF(AP$3:AP73,AP73))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR73" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO73" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP73" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ73" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR73" s="68" t="str">
+        <f ca="1">IF(AQ73=0,"",AQ73+(1-COUNTIF(AQ$3:AQ73,AQ73))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS73" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="33">
         <f>SAP!A74</f>
         <v>0</v>
@@ -24793,7 +25303,7 @@
         <v>0</v>
       </c>
       <c r="AG74" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH74" s="17" t="str">
@@ -24807,35 +25317,39 @@
       <c r="AJ74" s="18"/>
       <c r="AK74" s="18"/>
       <c r="AL74" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM74" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN74" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO74" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP74" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ74" s="68" t="str">
-        <f>IF(AP74=0,"",AP74+(1-COUNTIF(AP$3:AP74,AP74))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR74" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO74" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP74" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ74" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR74" s="68" t="str">
+        <f ca="1">IF(AQ74=0,"",AQ74+(1-COUNTIF(AQ$3:AQ74,AQ74))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS74" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A75" s="33">
         <f>SAP!A75</f>
         <v>0</v>
@@ -24965,7 +25479,7 @@
         <v>0</v>
       </c>
       <c r="AG75" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH75" s="17" t="str">
@@ -24979,35 +25493,39 @@
       <c r="AJ75" s="18"/>
       <c r="AK75" s="18"/>
       <c r="AL75" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM75" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN75" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO75" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP75" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ75" s="68" t="str">
-        <f>IF(AP75=0,"",AP75+(1-COUNTIF(AP$3:AP75,AP75))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR75" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO75" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP75" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ75" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR75" s="68" t="str">
+        <f ca="1">IF(AQ75=0,"",AQ75+(1-COUNTIF(AQ$3:AQ75,AQ75))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS75" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A76" s="33">
         <f>SAP!A76</f>
         <v>0</v>
@@ -25137,7 +25655,7 @@
         <v>0</v>
       </c>
       <c r="AG76" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH76" s="17" t="str">
@@ -25151,35 +25669,39 @@
       <c r="AJ76" s="18"/>
       <c r="AK76" s="18"/>
       <c r="AL76" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM76" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN76" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO76" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP76" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ76" s="68" t="str">
-        <f>IF(AP76=0,"",AP76+(1-COUNTIF(AP$3:AP76,AP76))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR76" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO76" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP76" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ76" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR76" s="68" t="str">
+        <f ca="1">IF(AQ76=0,"",AQ76+(1-COUNTIF(AQ$3:AQ76,AQ76))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS76" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A77" s="33">
         <f>SAP!A77</f>
         <v>0</v>
@@ -25309,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="AG77" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH77" s="17" t="str">
@@ -25323,35 +25845,39 @@
       <c r="AJ77" s="18"/>
       <c r="AK77" s="18"/>
       <c r="AL77" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM77" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN77" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO77" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP77" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ77" s="68" t="str">
-        <f>IF(AP77=0,"",AP77+(1-COUNTIF(AP$3:AP77,AP77))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR77" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO77" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP77" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ77" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR77" s="68" t="str">
+        <f ca="1">IF(AQ77=0,"",AQ77+(1-COUNTIF(AQ$3:AQ77,AQ77))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS77" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A78" s="33">
         <f>SAP!A78</f>
         <v>0</v>
@@ -25481,7 +26007,7 @@
         <v>0</v>
       </c>
       <c r="AG78" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH78" s="17" t="str">
@@ -25495,35 +26021,39 @@
       <c r="AJ78" s="18"/>
       <c r="AK78" s="18"/>
       <c r="AL78" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM78" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN78" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO78" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP78" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="68" t="str">
-        <f>IF(AP78=0,"",AP78+(1-COUNTIF(AP$3:AP78,AP78))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR78" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO78" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP78" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ78" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR78" s="68" t="str">
+        <f ca="1">IF(AQ78=0,"",AQ78+(1-COUNTIF(AQ$3:AQ78,AQ78))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS78" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" s="33">
         <f>SAP!A79</f>
         <v>0</v>
@@ -25653,7 +26183,7 @@
         <v>0</v>
       </c>
       <c r="AG79" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH79" s="17" t="str">
@@ -25667,35 +26197,39 @@
       <c r="AJ79" s="18"/>
       <c r="AK79" s="18"/>
       <c r="AL79" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM79" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN79" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO79" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP79" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ79" s="68" t="str">
-        <f>IF(AP79=0,"",AP79+(1-COUNTIF(AP$3:AP79,AP79))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR79" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO79" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP79" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ79" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR79" s="68" t="str">
+        <f ca="1">IF(AQ79=0,"",AQ79+(1-COUNTIF(AQ$3:AQ79,AQ79))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS79" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A80" s="33">
         <f>SAP!A80</f>
         <v>0</v>
@@ -25825,7 +26359,7 @@
         <v>0</v>
       </c>
       <c r="AG80" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH80" s="17" t="str">
@@ -25839,35 +26373,39 @@
       <c r="AJ80" s="18"/>
       <c r="AK80" s="18"/>
       <c r="AL80" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM80" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN80" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO80" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP80" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ80" s="68" t="str">
-        <f>IF(AP80=0,"",AP80+(1-COUNTIF(AP$3:AP80,AP80))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR80" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO80" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP80" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ80" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR80" s="68" t="str">
+        <f ca="1">IF(AQ80=0,"",AQ80+(1-COUNTIF(AQ$3:AQ80,AQ80))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS80" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A81" s="33">
         <f>SAP!A81</f>
         <v>0</v>
@@ -25997,7 +26535,7 @@
         <v>0</v>
       </c>
       <c r="AG81" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH81" s="17" t="str">
@@ -26011,35 +26549,39 @@
       <c r="AJ81" s="18"/>
       <c r="AK81" s="18"/>
       <c r="AL81" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM81" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN81" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO81" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP81" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ81" s="68" t="str">
-        <f>IF(AP81=0,"",AP81+(1-COUNTIF(AP$3:AP81,AP81))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR81" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO81" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP81" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ81" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR81" s="68" t="str">
+        <f ca="1">IF(AQ81=0,"",AQ81+(1-COUNTIF(AQ$3:AQ81,AQ81))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS81" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A82" s="33">
         <f>SAP!A82</f>
         <v>0</v>
@@ -26169,7 +26711,7 @@
         <v>0</v>
       </c>
       <c r="AG82" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH82" s="17" t="str">
@@ -26183,35 +26725,39 @@
       <c r="AJ82" s="18"/>
       <c r="AK82" s="18"/>
       <c r="AL82" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM82" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN82" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO82" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP82" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="68" t="str">
-        <f>IF(AP82=0,"",AP82+(1-COUNTIF(AP$3:AP82,AP82))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR82" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO82" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP82" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ82" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR82" s="68" t="str">
+        <f ca="1">IF(AQ82=0,"",AQ82+(1-COUNTIF(AQ$3:AQ82,AQ82))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS82" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A83" s="33">
         <f>SAP!A83</f>
         <v>0</v>
@@ -26341,7 +26887,7 @@
         <v>0</v>
       </c>
       <c r="AG83" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH83" s="17" t="str">
@@ -26355,35 +26901,39 @@
       <c r="AJ83" s="18"/>
       <c r="AK83" s="18"/>
       <c r="AL83" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM83" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN83" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO83" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP83" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ83" s="68" t="str">
-        <f>IF(AP83=0,"",AP83+(1-COUNTIF(AP$3:AP83,AP83))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR83" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO83" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP83" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ83" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR83" s="68" t="str">
+        <f ca="1">IF(AQ83=0,"",AQ83+(1-COUNTIF(AQ$3:AQ83,AQ83))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS83" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A84" s="33">
         <f>SAP!A84</f>
         <v>0</v>
@@ -26513,7 +27063,7 @@
         <v>0</v>
       </c>
       <c r="AG84" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH84" s="17" t="str">
@@ -26527,35 +27077,39 @@
       <c r="AJ84" s="18"/>
       <c r="AK84" s="18"/>
       <c r="AL84" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM84" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN84" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO84" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP84" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ84" s="68" t="str">
-        <f>IF(AP84=0,"",AP84+(1-COUNTIF(AP$3:AP84,AP84))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR84" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO84" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP84" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ84" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR84" s="68" t="str">
+        <f ca="1">IF(AQ84=0,"",AQ84+(1-COUNTIF(AQ$3:AQ84,AQ84))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS84" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A85" s="33">
         <f>SAP!A85</f>
         <v>0</v>
@@ -26685,7 +27239,7 @@
         <v>0</v>
       </c>
       <c r="AG85" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH85" s="17" t="str">
@@ -26699,35 +27253,39 @@
       <c r="AJ85" s="18"/>
       <c r="AK85" s="18"/>
       <c r="AL85" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM85" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN85" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO85" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP85" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ85" s="68" t="str">
-        <f>IF(AP85=0,"",AP85+(1-COUNTIF(AP$3:AP85,AP85))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR85" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO85" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP85" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ85" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR85" s="68" t="str">
+        <f ca="1">IF(AQ85=0,"",AQ85+(1-COUNTIF(AQ$3:AQ85,AQ85))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS85" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A86" s="33">
         <f>SAP!A86</f>
         <v>0</v>
@@ -26857,7 +27415,7 @@
         <v>0</v>
       </c>
       <c r="AG86" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH86" s="17" t="str">
@@ -26871,35 +27429,39 @@
       <c r="AJ86" s="18"/>
       <c r="AK86" s="18"/>
       <c r="AL86" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM86" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN86" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO86" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP86" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="68" t="str">
-        <f>IF(AP86=0,"",AP86+(1-COUNTIF(AP$3:AP86,AP86))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR86" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO86" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP86" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ86" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR86" s="68" t="str">
+        <f ca="1">IF(AQ86=0,"",AQ86+(1-COUNTIF(AQ$3:AQ86,AQ86))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS86" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A87" s="33">
         <f>SAP!A87</f>
         <v>0</v>
@@ -27029,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="AG87" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH87" s="17" t="str">
@@ -27043,35 +27605,39 @@
       <c r="AJ87" s="18"/>
       <c r="AK87" s="18"/>
       <c r="AL87" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM87" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN87" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO87" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP87" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="68" t="str">
-        <f>IF(AP87=0,"",AP87+(1-COUNTIF(AP$3:AP87,AP87))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR87" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO87" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP87" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ87" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR87" s="68" t="str">
+        <f ca="1">IF(AQ87=0,"",AQ87+(1-COUNTIF(AQ$3:AQ87,AQ87))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS87" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A88" s="33">
         <f>SAP!A88</f>
         <v>0</v>
@@ -27201,7 +27767,7 @@
         <v>0</v>
       </c>
       <c r="AG88" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH88" s="17" t="str">
@@ -27215,35 +27781,39 @@
       <c r="AJ88" s="18"/>
       <c r="AK88" s="18"/>
       <c r="AL88" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM88" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN88" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO88" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP88" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ88" s="68" t="str">
-        <f>IF(AP88=0,"",AP88+(1-COUNTIF(AP$3:AP88,AP88))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR88" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO88" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP88" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ88" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR88" s="68" t="str">
+        <f ca="1">IF(AQ88=0,"",AQ88+(1-COUNTIF(AQ$3:AQ88,AQ88))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS88" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A89" s="33">
         <f>SAP!A89</f>
         <v>0</v>
@@ -27373,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH89" s="17" t="str">
@@ -27387,35 +27957,39 @@
       <c r="AJ89" s="18"/>
       <c r="AK89" s="18"/>
       <c r="AL89" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM89" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN89" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO89" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP89" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ89" s="68" t="str">
-        <f>IF(AP89=0,"",AP89+(1-COUNTIF(AP$3:AP89,AP89))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR89" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO89" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP89" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ89" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR89" s="68" t="str">
+        <f ca="1">IF(AQ89=0,"",AQ89+(1-COUNTIF(AQ$3:AQ89,AQ89))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS89" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A90" s="33">
         <f>SAP!A90</f>
         <v>0</v>
@@ -27545,7 +28119,7 @@
         <v>0</v>
       </c>
       <c r="AG90" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH90" s="17" t="str">
@@ -27559,35 +28133,39 @@
       <c r="AJ90" s="18"/>
       <c r="AK90" s="18"/>
       <c r="AL90" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM90" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN90" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO90" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP90" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ90" s="68" t="str">
-        <f>IF(AP90=0,"",AP90+(1-COUNTIF(AP$3:AP90,AP90))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR90" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO90" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP90" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ90" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR90" s="68" t="str">
+        <f ca="1">IF(AQ90=0,"",AQ90+(1-COUNTIF(AQ$3:AQ90,AQ90))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS90" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="33">
         <f>SAP!A91</f>
         <v>0</v>
@@ -27717,7 +28295,7 @@
         <v>0</v>
       </c>
       <c r="AG91" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH91" s="17" t="str">
@@ -27731,35 +28309,39 @@
       <c r="AJ91" s="18"/>
       <c r="AK91" s="18"/>
       <c r="AL91" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM91" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN91" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO91" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP91" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ91" s="68" t="str">
-        <f>IF(AP91=0,"",AP91+(1-COUNTIF(AP$3:AP91,AP91))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR91" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO91" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP91" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ91" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR91" s="68" t="str">
+        <f ca="1">IF(AQ91=0,"",AQ91+(1-COUNTIF(AQ$3:AQ91,AQ91))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS91" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A92" s="33">
         <f>SAP!A92</f>
         <v>0</v>
@@ -27889,7 +28471,7 @@
         <v>0</v>
       </c>
       <c r="AG92" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH92" s="17" t="str">
@@ -27903,35 +28485,39 @@
       <c r="AJ92" s="18"/>
       <c r="AK92" s="18"/>
       <c r="AL92" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM92" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN92" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO92" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP92" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ92" s="68" t="str">
-        <f>IF(AP92=0,"",AP92+(1-COUNTIF(AP$3:AP92,AP92))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR92" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO92" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP92" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ92" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR92" s="68" t="str">
+        <f ca="1">IF(AQ92=0,"",AQ92+(1-COUNTIF(AQ$3:AQ92,AQ92))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS92" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A93" s="33">
         <f>SAP!A93</f>
         <v>0</v>
@@ -28061,7 +28647,7 @@
         <v>0</v>
       </c>
       <c r="AG93" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH93" s="17" t="str">
@@ -28075,35 +28661,39 @@
       <c r="AJ93" s="18"/>
       <c r="AK93" s="18"/>
       <c r="AL93" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM93" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN93" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO93" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP93" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ93" s="68" t="str">
-        <f>IF(AP93=0,"",AP93+(1-COUNTIF(AP$3:AP93,AP93))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR93" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO93" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP93" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ93" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR93" s="68" t="str">
+        <f ca="1">IF(AQ93=0,"",AQ93+(1-COUNTIF(AQ$3:AQ93,AQ93))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS93" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A94" s="33">
         <f>SAP!A94</f>
         <v>0</v>
@@ -28233,7 +28823,7 @@
         <v>0</v>
       </c>
       <c r="AG94" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH94" s="17" t="str">
@@ -28247,35 +28837,39 @@
       <c r="AJ94" s="18"/>
       <c r="AK94" s="18"/>
       <c r="AL94" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM94" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN94" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO94" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP94" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ94" s="68" t="str">
-        <f>IF(AP94=0,"",AP94+(1-COUNTIF(AP$3:AP94,AP94))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR94" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO94" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP94" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ94" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR94" s="68" t="str">
+        <f ca="1">IF(AQ94=0,"",AQ94+(1-COUNTIF(AQ$3:AQ94,AQ94))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS94" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A95" s="33">
         <f>SAP!A95</f>
         <v>0</v>
@@ -28405,7 +28999,7 @@
         <v>0</v>
       </c>
       <c r="AG95" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH95" s="17" t="str">
@@ -28419,35 +29013,39 @@
       <c r="AJ95" s="18"/>
       <c r="AK95" s="18"/>
       <c r="AL95" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM95" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN95" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO95" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP95" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ95" s="68" t="str">
-        <f>IF(AP95=0,"",AP95+(1-COUNTIF(AP$3:AP95,AP95))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR95" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO95" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP95" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ95" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR95" s="68" t="str">
+        <f ca="1">IF(AQ95=0,"",AQ95+(1-COUNTIF(AQ$3:AQ95,AQ95))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS95" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A96" s="33">
         <f>SAP!A96</f>
         <v>0</v>
@@ -28577,7 +29175,7 @@
         <v>0</v>
       </c>
       <c r="AG96" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH96" s="17" t="str">
@@ -28591,35 +29189,39 @@
       <c r="AJ96" s="18"/>
       <c r="AK96" s="18"/>
       <c r="AL96" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM96" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN96" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO96" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP96" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="68" t="str">
-        <f>IF(AP96=0,"",AP96+(1-COUNTIF(AP$3:AP96,AP96))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR96" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO96" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP96" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ96" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR96" s="68" t="str">
+        <f ca="1">IF(AQ96=0,"",AQ96+(1-COUNTIF(AQ$3:AQ96,AQ96))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS96" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A97" s="33">
         <f>SAP!A97</f>
         <v>0</v>
@@ -28749,7 +29351,7 @@
         <v>0</v>
       </c>
       <c r="AG97" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH97" s="17" t="str">
@@ -28763,35 +29365,39 @@
       <c r="AJ97" s="18"/>
       <c r="AK97" s="18"/>
       <c r="AL97" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM97" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN97" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO97" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP97" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ97" s="68" t="str">
-        <f>IF(AP97=0,"",AP97+(1-COUNTIF(AP$3:AP97,AP97))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR97" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO97" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP97" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ97" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR97" s="68" t="str">
+        <f ca="1">IF(AQ97=0,"",AQ97+(1-COUNTIF(AQ$3:AQ97,AQ97))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS97" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A98" s="33">
         <f>SAP!A98</f>
         <v>0</v>
@@ -28921,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="AG98" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH98" s="17" t="str">
@@ -28935,35 +29541,39 @@
       <c r="AJ98" s="18"/>
       <c r="AK98" s="18"/>
       <c r="AL98" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM98" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN98" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO98" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP98" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="68" t="str">
-        <f>IF(AP98=0,"",AP98+(1-COUNTIF(AP$3:AP98,AP98))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR98" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO98" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP98" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ98" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR98" s="68" t="str">
+        <f ca="1">IF(AQ98=0,"",AQ98+(1-COUNTIF(AQ$3:AQ98,AQ98))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS98" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A99" s="33">
         <f>SAP!A99</f>
         <v>0</v>
@@ -29093,7 +29703,7 @@
         <v>0</v>
       </c>
       <c r="AG99" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH99" s="17" t="str">
@@ -29107,35 +29717,39 @@
       <c r="AJ99" s="18"/>
       <c r="AK99" s="18"/>
       <c r="AL99" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM99" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN99" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO99" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP99" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="68" t="str">
-        <f>IF(AP99=0,"",AP99+(1-COUNTIF(AP$3:AP99,AP99))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR99" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO99" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP99" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ99" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR99" s="68" t="str">
+        <f ca="1">IF(AQ99=0,"",AQ99+(1-COUNTIF(AQ$3:AQ99,AQ99))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS99" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A100" s="33">
         <f>SAP!A100</f>
         <v>0</v>
@@ -29265,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="AG100" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH100" s="17" t="str">
@@ -29279,35 +29893,39 @@
       <c r="AJ100" s="18"/>
       <c r="AK100" s="18"/>
       <c r="AL100" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM100" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN100" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO100" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP100" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="68" t="str">
-        <f>IF(AP100=0,"",AP100+(1-COUNTIF(AP$3:AP100,AP100))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR100" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO100" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP100" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ100" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR100" s="68" t="str">
+        <f ca="1">IF(AQ100=0,"",AQ100+(1-COUNTIF(AQ$3:AQ100,AQ100))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS100" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
         <f>SAP!A101</f>
         <v>0</v>
@@ -29437,7 +30055,7 @@
         <v>0</v>
       </c>
       <c r="AG101" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH101" s="17" t="str">
@@ -29451,35 +30069,39 @@
       <c r="AJ101" s="18"/>
       <c r="AK101" s="18"/>
       <c r="AL101" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM101" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN101" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO101" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP101" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ101" s="68" t="str">
-        <f>IF(AP101=0,"",AP101+(1-COUNTIF(AP$3:AP101,AP101))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR101" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO101" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP101" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ101" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR101" s="68" t="str">
+        <f ca="1">IF(AQ101=0,"",AQ101+(1-COUNTIF(AQ$3:AQ101,AQ101))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS101" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A102" s="33">
         <f>SAP!A102</f>
         <v>0</v>
@@ -29609,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="AG102" s="17">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AH102" s="17" t="str">
@@ -29623,31 +30245,35 @@
       <c r="AJ102" s="18"/>
       <c r="AK102" s="18"/>
       <c r="AL102" s="17">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="AM102" s="17" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="AN102" s="17" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v/>
-      </c>
-      <c r="AO102" s="61" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AP102" s="68">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AQ102" s="68" t="str">
-        <f>IF(AP102=0,"",AP102+(1-COUNTIF(AP$3:AP102,AP102))/1000)</f>
-        <v/>
-      </c>
-      <c r="AR102" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="AO102" s="17" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v/>
+      </c>
+      <c r="AP102" s="61" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="AQ102" s="68">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AR102" s="68" t="str">
+        <f ca="1">IF(AQ102=0,"",AQ102+(1-COUNTIF(AQ$3:AQ102,AQ102))/1000)</f>
+        <v/>
+      </c>
+      <c r="AS102" s="67" t="str">
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
     </row>
@@ -29693,7 +30319,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="105" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/EV Sample.xlsx
+++ b/EV Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg.B.Watson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg.B.Watson\Documents\GitHub\CrunchThePeople1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -496,7 +496,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> The tab "CallList" lists the rows from the EV tab in order of their priority as determined by the calculations on the EV tab.
-Recall that the formula we apply for "estimate at completion" (EAC) assumes that each student will continue to study with the same efficiency until they complete. Thus the EAC = AC + (BAC - EV) / (CPI * SPI),  the inclusion of SPI in the denominator that the schedule will extend in time until the course is complete
+Recall that the formula we apply for "estimate at completion" (EAC) assumes that each student will continue to study with the same efficiency until they complete, because even though each course has deadlines, each student is able to continue the same course in a following cycle. Thus the EAC = AC + (BAC - EV) / (CPI * SPI),  the inclusion of SPI in the denominator that the schedule will extend in time until the course is complete
 Raw Priority = VAC = BAC - EAC 
 A challenge with "raw priority" is that some rows may have the same VAC. For each row that has the same VAC, we add a small amount so that they are listed in sequence.</t>
     </r>
@@ -1454,7 +1454,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="C9" s="58" t="s">
         <v>145</v>
       </c>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1559,8 +1559,8 @@
   <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,12 +1643,12 @@
         <v>0.51388888888888884</v>
       </c>
       <c r="J2" s="75">
-        <f ca="1">B2+(E2-C2)/(H2)</f>
-        <v>1633.8162162162164</v>
+        <f ca="1">B2+(E2-C2)/(H2*I2)</f>
+        <v>2980.7639883126376</v>
       </c>
       <c r="K2" s="75">
         <f ca="1">E2-J2</f>
-        <v>-553.81621621621639</v>
+        <v>-1900.7639883126376</v>
       </c>
       <c r="L2" s="75">
         <f ca="1">(E2-C2)/(E2-B2)</f>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B5" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A5,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Fred</v>
+        <v>Kathy</v>
       </c>
       <c r="C5" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A5,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B6" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A6,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Kathy</v>
+        <v>Mona</v>
       </c>
       <c r="C6" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A6,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B7" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A7,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Mona</v>
+        <v>Ted</v>
       </c>
       <c r="C7" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A7,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B8" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A8,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Judy</v>
+        <v>Mike</v>
       </c>
       <c r="C8" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A8,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B9" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A9,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Lynda</v>
+        <v>Stu</v>
       </c>
       <c r="C9" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A9,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B10" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A10,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Ted</v>
+        <v>Fred</v>
       </c>
       <c r="C10" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A10,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1823,11 +1823,11 @@
       </c>
       <c r="B11" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A11,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Henry</v>
+        <v>Nancy</v>
       </c>
       <c r="C11" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A11,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>May be having difficulty with the material</v>
+        <v>Not completing milestones in the week due</v>
       </c>
       <c r="D11" s="77"/>
       <c r="E11" s="77"/>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B12" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A12,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Tom</v>
+        <v>Judy</v>
       </c>
       <c r="C12" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A12,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B13" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A13,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Mike</v>
+        <v>Lynda</v>
       </c>
       <c r="C13" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A13,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B14" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A14,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Dick</v>
+        <v>Henry</v>
       </c>
       <c r="C14" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A14,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B15" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A15,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Stu</v>
+        <v>Tom</v>
       </c>
       <c r="C15" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A15,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1938,11 +1938,11 @@
       </c>
       <c r="B16" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A16,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Harry</v>
+        <v>Dick</v>
       </c>
       <c r="C16" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A16,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Charging time to the wrong SAP code</v>
+        <v>May be having difficulty with the material</v>
       </c>
       <c r="D16" s="77"/>
       <c r="E16" s="77"/>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B17" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A17,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Frank</v>
+        <v>Bill</v>
       </c>
       <c r="C17" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A17,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B18" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A18,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Bill</v>
+        <v>Kurt</v>
       </c>
       <c r="C18" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A18,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B19" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A19,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Kurt</v>
+        <v>Frank</v>
       </c>
       <c r="C19" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A19,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
@@ -2030,11 +2030,11 @@
       </c>
       <c r="B20" s="82" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$A$2,MATCH($A20,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Nancy</v>
+        <v>Harry</v>
       </c>
       <c r="C20" s="83" t="str">
         <f ca="1">IFERROR(OFFSET(EV!$AP$2,MATCH(A20,EV!AS$3:OFFSET(EV!$AS$1,MATCH(0,EV!$A:$A,0)-2,0),0),0),"")</f>
-        <v>Not completing milestones in the week due</v>
+        <v>Charging time to the wrong SAP code</v>
       </c>
       <c r="D20" s="77"/>
       <c r="E20" s="77"/>
@@ -12325,7 +12325,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN3" sqref="AN3"/>
+      <selection pane="bottomRight" activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12727,8 +12727,8 @@
         <v>0.5</v>
       </c>
       <c r="AN3" s="17">
-        <f ca="1">IF(AF3=0,"",AF3 + (AI3 - AG3)/(AL3))</f>
-        <v>168</v>
+        <f ca="1">IF(AF3=0,"",AF3 + (AI3 - AG3)/(AL3*AM3))</f>
+        <v>315</v>
       </c>
       <c r="AO3" s="17">
         <f ca="1">IF(AF3=0,"",IFERROR((AI3-AG3)/(AI3-AF3),0))</f>
@@ -12740,15 +12740,15 @@
       </c>
       <c r="AQ3" s="68">
         <f ca="1">IF(AF3=0,0,AI3-AN3)</f>
-        <v>-108</v>
+        <v>-255</v>
       </c>
       <c r="AR3" s="68">
         <f ca="1">IF(AQ3=0,"",AQ3+(1-COUNTIF(AQ$3:AQ3,AQ3))/1000)</f>
-        <v>-108</v>
+        <v>-255</v>
       </c>
       <c r="AS3" s="67">
         <f ca="1">IF(AQ3=0,"",COUNTIFS(AR$3:AR$20,"&lt;="&amp;AR3))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="AN4" s="17">
-        <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",AF4 + (AI4 - AG4)/(AL4))</f>
+        <f t="shared" ref="AN4:AN67" ca="1" si="6">IF(AF4=0,"",AF4 + (AI4 - AG4)/(AL4*AM4))</f>
         <v>59.599999999999994</v>
       </c>
       <c r="AO4" s="17">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="AN6" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="AO6" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -13286,15 +13286,15 @@
       </c>
       <c r="AQ6" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-12</v>
+        <v>-75</v>
       </c>
       <c r="AR6" s="68">
         <f ca="1">IF(AQ6=0,"",AQ6+(1-COUNTIF(AQ$3:AQ6,AQ6))/1000)</f>
-        <v>-12</v>
+        <v>-75</v>
       </c>
       <c r="AS6" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -13456,7 +13456,7 @@
       </c>
       <c r="AN7" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="AO7" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -13468,15 +13468,15 @@
       </c>
       <c r="AQ7" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-36</v>
+        <v>-306</v>
       </c>
       <c r="AR7" s="68">
         <f ca="1">IF(AQ7=0,"",AQ7+(1-COUNTIF(AQ$3:AQ7,AQ7))/1000)</f>
-        <v>-36</v>
+        <v>-306</v>
       </c>
       <c r="AS7" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="AN8" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>74.666666666666657</v>
+        <v>94.8888888888889</v>
       </c>
       <c r="AO8" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -13650,15 +13650,15 @@
       </c>
       <c r="AQ8" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.666666666666657</v>
+        <v>-34.8888888888889</v>
       </c>
       <c r="AR8" s="68">
         <f ca="1">IF(AQ8=0,"",AQ8+(1-COUNTIF(AQ$3:AQ8,AQ8))/1000)</f>
-        <v>-14.666666666666657</v>
+        <v>-34.8888888888889</v>
       </c>
       <c r="AS8" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="AN9" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>244</v>
       </c>
       <c r="AO9" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -13832,15 +13832,15 @@
       </c>
       <c r="AQ9" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-4</v>
+        <v>-184</v>
       </c>
       <c r="AR9" s="68">
         <f ca="1">IF(AQ9=0,"",AQ9+(1-COUNTIF(AQ$3:AQ9,AQ9))/1000)</f>
-        <v>-4</v>
+        <v>-184</v>
       </c>
       <c r="AS9" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="AN10" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="AO10" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -14014,15 +14014,15 @@
       </c>
       <c r="AQ10" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-12</v>
+        <v>-75</v>
       </c>
       <c r="AR10" s="68">
         <f ca="1">IF(AQ10=0,"",AQ10+(1-COUNTIF(AQ$3:AQ10,AQ10))/1000)</f>
-        <v>-12.000999999999999</v>
+        <v>-75.001000000000005</v>
       </c>
       <c r="AS10" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="AN11" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>427</v>
       </c>
       <c r="AO11" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -14196,15 +14196,15 @@
       </c>
       <c r="AQ11" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-52</v>
+        <v>-367</v>
       </c>
       <c r="AR11" s="68">
         <f ca="1">IF(AQ11=0,"",AQ11+(1-COUNTIF(AQ$3:AQ11,AQ11))/1000)</f>
-        <v>-52</v>
+        <v>-367</v>
       </c>
       <c r="AS11" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -14366,7 +14366,7 @@
       </c>
       <c r="AN12" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>104.00000000000001</v>
+        <v>195.00000000000003</v>
       </c>
       <c r="AO12" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -14378,15 +14378,15 @@
       </c>
       <c r="AQ12" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-44.000000000000014</v>
+        <v>-135.00000000000003</v>
       </c>
       <c r="AR12" s="68">
         <f ca="1">IF(AQ12=0,"",AQ12+(1-COUNTIF(AQ$3:AQ12,AQ12))/1000)</f>
-        <v>-44.000000000000014</v>
+        <v>-135.00000000000003</v>
       </c>
       <c r="AS12" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="AN13" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="AO13" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -14560,15 +14560,15 @@
       </c>
       <c r="AQ13" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-36</v>
+        <v>-120</v>
       </c>
       <c r="AR13" s="68">
         <f ca="1">IF(AQ13=0,"",AQ13+(1-COUNTIF(AQ$3:AQ13,AQ13))/1000)</f>
-        <v>-36.000999999999998</v>
+        <v>-120</v>
       </c>
       <c r="AS13" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -14750,7 +14750,7 @@
       </c>
       <c r="AS14" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="AN15" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>128</v>
+        <v>488</v>
       </c>
       <c r="AO15" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -14924,15 +14924,15 @@
       </c>
       <c r="AQ15" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-68</v>
+        <v>-428</v>
       </c>
       <c r="AR15" s="68">
         <f ca="1">IF(AQ15=0,"",AQ15+(1-COUNTIF(AQ$3:AQ15,AQ15))/1000)</f>
-        <v>-68</v>
+        <v>-428</v>
       </c>
       <c r="AS15" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="AN16" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="AO16" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -15106,15 +15106,15 @@
       </c>
       <c r="AQ16" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-100</v>
+        <v>-550</v>
       </c>
       <c r="AR16" s="68">
         <f ca="1">IF(AQ16=0,"",AQ16+(1-COUNTIF(AQ$3:AQ16,AQ16))/1000)</f>
-        <v>-100</v>
+        <v>-550</v>
       </c>
       <c r="AS16" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="AN17" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="AO17" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -15288,15 +15288,15 @@
       </c>
       <c r="AQ17" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-52</v>
+        <v>-150</v>
       </c>
       <c r="AR17" s="68">
         <f ca="1">IF(AQ17=0,"",AQ17+(1-COUNTIF(AQ$3:AQ17,AQ17))/1000)</f>
-        <v>-52.000999999999998</v>
+        <v>-150</v>
       </c>
       <c r="AS17" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="AN18" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="AO18" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -15470,15 +15470,15 @@
       </c>
       <c r="AQ18" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-52</v>
+        <v>-150</v>
       </c>
       <c r="AR18" s="68">
         <f ca="1">IF(AQ18=0,"",AQ18+(1-COUNTIF(AQ$3:AQ18,AQ18))/1000)</f>
-        <v>-52.002000000000002</v>
+        <v>-150.001</v>
       </c>
       <c r="AS18" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -15640,7 +15640,7 @@
       </c>
       <c r="AN19" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>104.00000000000001</v>
+        <v>195.00000000000003</v>
       </c>
       <c r="AO19" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -15652,15 +15652,15 @@
       </c>
       <c r="AQ19" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-44.000000000000014</v>
+        <v>-135.00000000000003</v>
       </c>
       <c r="AR19" s="68">
         <f ca="1">IF(AQ19=0,"",AQ19+(1-COUNTIF(AQ$3:AQ19,AQ19))/1000)</f>
-        <v>-44.001000000000012</v>
+        <v>-135.00100000000003</v>
       </c>
       <c r="AS19" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="AN20" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>366</v>
       </c>
       <c r="AO20" s="17">
         <f t="shared" ca="1" si="7"/>
@@ -15834,15 +15834,15 @@
       </c>
       <c r="AQ20" s="68">
         <f t="shared" ca="1" si="8"/>
-        <v>-36</v>
+        <v>-306</v>
       </c>
       <c r="AR20" s="68">
         <f ca="1">IF(AQ20=0,"",AQ20+(1-COUNTIF(AQ$3:AQ20,AQ20))/1000)</f>
-        <v>-36.002000000000002</v>
+        <v>-306.00099999999998</v>
       </c>
       <c r="AS20" s="67">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
@@ -24269,7 +24269,7 @@
         <v/>
       </c>
       <c r="AN68" s="17" t="str">
-        <f t="shared" ref="AN68:AN102" ca="1" si="15">IF(AF68=0,"",AF68 + (AI68 - AG68)/(AL68))</f>
+        <f t="shared" ref="AN68:AN102" ca="1" si="15">IF(AF68=0,"",AF68 + (AI68 - AG68)/(AL68*AM68))</f>
         <v/>
       </c>
       <c r="AO68" s="17" t="str">
